--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2995587.302462808</v>
+        <v>3111125.893405143</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12458824.03133925</v>
+        <v>12463925.44488782</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283177</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8378131.797362157</v>
+        <v>8377137.503415724</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>145.198658204325</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>158.2964914343835</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -744,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>29.0087478103196</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="W3" t="n">
-        <v>116.3937254205879</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663203</v>
       </c>
     </row>
     <row r="4">
@@ -820,10 +822,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>46.71094758160118</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -868,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>5.61932306184917</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663203</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>349.2299344537559</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>349.2299344537559</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>288.1874442843756</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>17.14536650810839</v>
       </c>
       <c r="G5" t="n">
-        <v>12.538236240781</v>
+        <v>12.28773869504416</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>349.2299344537559</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -981,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>69.54182730651173</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.85559031833734</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.321493021612</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>144.2088206736375</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>228.1513683589627</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>99.69402691451685</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>154.4555168896451</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278.4150732167541</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>411.8302881234605</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>303.9125797832802</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0678569565025</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>64.01059432361201</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1215,22 +1217,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>135.4855929438821</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>94.29180769719218</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>25.42862793155193</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>137.1730436088544</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>192.675990284458</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8191502244401</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>180.7759221290913</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>144.7544742737052</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>70.84294579939183</v>
+        <v>108.6085557685652</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>107.2570757305867</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1421,10 +1423,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1534,10 +1536,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>126.926382450742</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>118.8241514613406</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695517</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>160.3243999861137</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462237</v>
+        <v>33.82891891787487</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,22 +1897,22 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182122</v>
+        <v>23.41986852521121</v>
       </c>
       <c r="E19" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365909</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.07916359105766</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>39.19314274111061</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012154</v>
+        <v>12.96996784159929</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2330,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2381,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016445</v>
+        <v>135.0353110735035</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>272.5219151058096</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2606,13 +2608,13 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2713,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>21.23835815356878</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>279.8176540913221</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>54.29785174158985</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>127.9967681169581</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3038,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3083,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3202,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3235,22 +3237,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>71.60395572454081</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>39.17658763086867</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.154082144413</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,7 +3432,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>65.99480013030646</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>192.5720565938775</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3557,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>68.41584059195296</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3709,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>166.8663745188122</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3718,10 +3720,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3737,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3791,13 +3793,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="42">
@@ -3901,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3958,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>32.81060261323983</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>115.4863975071903</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4031,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4144,13 +4146,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>53.30076123484837</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>66.43694060668925</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4183,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4195,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.17768229832527</v>
+        <v>371.2627786323109</v>
       </c>
       <c r="C2" t="n">
-        <v>35.17768229832527</v>
+        <v>211.3673327389942</v>
       </c>
       <c r="D2" t="n">
-        <v>35.17768229832527</v>
+        <v>211.3673327389942</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832527</v>
+        <v>211.3673327389942</v>
       </c>
       <c r="F2" t="n">
-        <v>28.2321815491218</v>
+        <v>204.4218319897908</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678515</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058987</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644761</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123838</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985595</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020278</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="T2" t="n">
-        <v>560.6825636487947</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="U2" t="n">
-        <v>371.26277863231</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="V2" t="n">
-        <v>371.26277863231</v>
+        <v>560.6825636487961</v>
       </c>
       <c r="W2" t="n">
-        <v>371.26277863231</v>
+        <v>560.6825636487961</v>
       </c>
       <c r="X2" t="n">
-        <v>371.26277863231</v>
+        <v>560.6825636487961</v>
       </c>
       <c r="Y2" t="n">
-        <v>181.8429936158252</v>
+        <v>560.6825636487961</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.27357399906981</v>
+        <v>181.8429936158258</v>
       </c>
       <c r="C3" t="n">
-        <v>64.27357399906981</v>
+        <v>181.8429936158258</v>
       </c>
       <c r="D3" t="n">
-        <v>64.27357399906981</v>
+        <v>181.8429936158258</v>
       </c>
       <c r="E3" t="n">
-        <v>64.27357399906981</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="F3" t="n">
-        <v>64.27357399906981</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140251</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546599</v>
+        <v>512.500058754661</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476346</v>
+        <v>649.2101578476359</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017076</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="T3" t="n">
-        <v>560.6825636487947</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487947</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="V3" t="n">
-        <v>371.26277863231</v>
+        <v>560.6825636487961</v>
       </c>
       <c r="W3" t="n">
-        <v>253.6933590155545</v>
+        <v>371.2627786323109</v>
       </c>
       <c r="X3" t="n">
-        <v>253.6933590155545</v>
+        <v>371.2627786323109</v>
       </c>
       <c r="Y3" t="n">
-        <v>64.27357399906981</v>
+        <v>181.8429936158258</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.9382299012125</v>
+        <v>379.0340988185563</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>210.0979158906494</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>162.9151405556987</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594234</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745584</v>
+        <v>187.8896250884408</v>
       </c>
       <c r="M4" t="n">
-        <v>295.5529562639638</v>
+        <v>373.5399563830979</v>
       </c>
       <c r="N4" t="n">
-        <v>481.2032875586205</v>
+        <v>559.190287677755</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608017</v>
+        <v>721.9284911143053</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="S4" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="T4" t="n">
-        <v>560.6825636487947</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="U4" t="n">
-        <v>560.6825636487947</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="V4" t="n">
-        <v>555.006479747937</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="W4" t="n">
-        <v>555.006479747937</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="X4" t="n">
-        <v>555.006479747937</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="Y4" t="n">
-        <v>365.5866947314522</v>
+        <v>560.6825636487961</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>691.4047187165268</v>
+        <v>63.45962035867223</v>
       </c>
       <c r="C5" t="n">
-        <v>338.6472091672783</v>
+        <v>63.45962035867223</v>
       </c>
       <c r="D5" t="n">
-        <v>47.54878059720193</v>
+        <v>63.45962035867223</v>
       </c>
       <c r="E5" t="n">
-        <v>47.54878059720193</v>
+        <v>63.45962035867223</v>
       </c>
       <c r="F5" t="n">
-        <v>40.60327984799845</v>
+        <v>46.14106833027991</v>
       </c>
       <c r="G5" t="n">
-        <v>27.93839475630047</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H5" t="n">
-        <v>27.93839475630047</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I5" t="n">
-        <v>27.93839475630047</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="J5" t="n">
-        <v>80.99020340874631</v>
+        <v>107.8290791267618</v>
       </c>
       <c r="K5" t="n">
-        <v>211.2396305620539</v>
+        <v>269.6240911917569</v>
       </c>
       <c r="L5" t="n">
-        <v>409.7273242458673</v>
+        <v>507.2468724099484</v>
       </c>
       <c r="M5" t="n">
-        <v>662.252565397384</v>
+        <v>803.3174389675509</v>
       </c>
       <c r="N5" t="n">
-        <v>923.4777373365765</v>
+        <v>1108.792545203136</v>
       </c>
       <c r="O5" t="n">
-        <v>1156.809998477535</v>
+        <v>1383.90876451977</v>
       </c>
       <c r="P5" t="n">
-        <v>1321.452684169737</v>
+        <v>1584.213091808873</v>
       </c>
       <c r="Q5" t="n">
-        <v>1396.919737815024</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="R5" t="n">
-        <v>1396.919737815024</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="S5" t="n">
-        <v>1396.919737815024</v>
+        <v>1544.727438003256</v>
       </c>
       <c r="T5" t="n">
-        <v>1396.919737815024</v>
+        <v>1544.727438003256</v>
       </c>
       <c r="U5" t="n">
-        <v>1396.919737815024</v>
+        <v>1544.727438003256</v>
       </c>
       <c r="V5" t="n">
-        <v>1396.919737815024</v>
+        <v>1213.664550659686</v>
       </c>
       <c r="W5" t="n">
-        <v>1396.919737815024</v>
+        <v>1213.664550659686</v>
       </c>
       <c r="X5" t="n">
-        <v>1044.162228265775</v>
+        <v>840.1987923986057</v>
       </c>
       <c r="Y5" t="n">
-        <v>1044.162228265775</v>
+        <v>450.059460422794</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>361.628879042883</v>
+        <v>449.7254405481155</v>
       </c>
       <c r="C6" t="n">
-        <v>187.175849761756</v>
+        <v>275.2724112669885</v>
       </c>
       <c r="D6" t="n">
-        <v>187.175849761756</v>
+        <v>275.2724112669885</v>
       </c>
       <c r="E6" t="n">
-        <v>27.93839475630047</v>
+        <v>275.2724112669885</v>
       </c>
       <c r="F6" t="n">
-        <v>27.93839475630047</v>
+        <v>275.2724112669885</v>
       </c>
       <c r="G6" t="n">
-        <v>27.93839475630047</v>
+        <v>138.1710470472546</v>
       </c>
       <c r="H6" t="n">
-        <v>27.93839475630047</v>
+        <v>67.92677704067707</v>
       </c>
       <c r="I6" t="n">
-        <v>27.93839475630047</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="J6" t="n">
-        <v>40.71784159143083</v>
+        <v>121.7846078506383</v>
       </c>
       <c r="K6" t="n">
-        <v>140.7147764379372</v>
+        <v>243.2077001209171</v>
       </c>
       <c r="L6" t="n">
-        <v>486.4524115471555</v>
+        <v>452.7985733737478</v>
       </c>
       <c r="M6" t="n">
-        <v>716.7719002805674</v>
+        <v>716.738104869235</v>
       </c>
       <c r="N6" t="n">
-        <v>967.5959054594719</v>
+        <v>1002.071975302568</v>
       </c>
       <c r="O6" t="n">
-        <v>1201.587633459968</v>
+        <v>1240.876927054026</v>
       </c>
       <c r="P6" t="n">
-        <v>1348.579058983952</v>
+        <v>1413.205888007736</v>
       </c>
       <c r="Q6" t="n">
-        <v>1396.919737815024</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="R6" t="n">
-        <v>1388.514189308345</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="S6" t="n">
-        <v>1242.848713880428</v>
+        <v>1543.309735648992</v>
       </c>
       <c r="T6" t="n">
-        <v>1242.848713880428</v>
+        <v>1347.691013115832</v>
       </c>
       <c r="U6" t="n">
-        <v>1242.848713880428</v>
+        <v>1119.574596246804</v>
       </c>
       <c r="V6" t="n">
-        <v>1007.696605648686</v>
+        <v>1119.574596246804</v>
       </c>
       <c r="W6" t="n">
-        <v>777.2406780133697</v>
+        <v>865.3372395186022</v>
       </c>
       <c r="X6" t="n">
-        <v>569.3891778078369</v>
+        <v>657.4857393130694</v>
       </c>
       <c r="Y6" t="n">
-        <v>361.628879042883</v>
+        <v>449.7254405481155</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>297.5756149715982</v>
+        <v>596.1911048331718</v>
       </c>
       <c r="C7" t="n">
-        <v>128.6394320436912</v>
+        <v>596.1911048331718</v>
       </c>
       <c r="D7" t="n">
-        <v>128.6394320436912</v>
+        <v>596.1911048331718</v>
       </c>
       <c r="E7" t="n">
-        <v>128.6394320436912</v>
+        <v>448.2780112507787</v>
       </c>
       <c r="F7" t="n">
-        <v>128.6394320436912</v>
+        <v>301.3880637528684</v>
       </c>
       <c r="G7" t="n">
-        <v>128.6394320436912</v>
+        <v>301.3880637528684</v>
       </c>
       <c r="H7" t="n">
-        <v>27.93839475630047</v>
+        <v>149.6679752034537</v>
       </c>
       <c r="I7" t="n">
-        <v>27.93839475630047</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="J7" t="n">
-        <v>27.93839475630047</v>
+        <v>35.96388306992288</v>
       </c>
       <c r="K7" t="n">
-        <v>148.5233105874692</v>
+        <v>169.472972355726</v>
       </c>
       <c r="L7" t="n">
-        <v>358.3569215208641</v>
+        <v>395.84507567387</v>
       </c>
       <c r="M7" t="n">
-        <v>589.9861665014278</v>
+        <v>644.9118420064103</v>
       </c>
       <c r="N7" t="n">
-        <v>821.5424021750252</v>
+        <v>893.4909737490111</v>
       </c>
       <c r="O7" t="n">
-        <v>1019.405768767886</v>
+        <v>1107.077740097166</v>
       </c>
       <c r="P7" t="n">
-        <v>1165.191378612032</v>
+        <v>1266.31743473321</v>
       </c>
       <c r="Q7" t="n">
-        <v>1182.690698049272</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="R7" t="n">
-        <v>1182.690698049272</v>
+        <v>1175.471604442305</v>
       </c>
       <c r="S7" t="n">
-        <v>1182.690698049272</v>
+        <v>972.9993576026061</v>
       </c>
       <c r="T7" t="n">
-        <v>1182.690698049272</v>
+        <v>816.983683976702</v>
       </c>
       <c r="U7" t="n">
-        <v>1182.690698049272</v>
+        <v>816.983683976702</v>
       </c>
       <c r="V7" t="n">
-        <v>928.0062098433854</v>
+        <v>816.983683976702</v>
       </c>
       <c r="W7" t="n">
-        <v>928.0062098433854</v>
+        <v>816.983683976702</v>
       </c>
       <c r="X7" t="n">
-        <v>700.016658945368</v>
+        <v>816.983683976702</v>
       </c>
       <c r="Y7" t="n">
-        <v>479.2240798018379</v>
+        <v>596.1911048331718</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1890.972649740754</v>
+        <v>1178.314045162418</v>
       </c>
       <c r="C8" t="n">
-        <v>1522.010132800342</v>
+        <v>1178.314045162418</v>
       </c>
       <c r="D8" t="n">
-        <v>1163.744434193592</v>
+        <v>1178.314045162418</v>
       </c>
       <c r="E8" t="n">
-        <v>777.9561815953474</v>
+        <v>1178.314045162418</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>767.3281403728108</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>351.3379503491133</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>44.35554652761812</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>44.35554652761812</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>156.8927045872699</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>376.2952505158981</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>685.3852714985251</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1060.97691255694</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1447.259827415483</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>1798.680568975103</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2064.10904063108</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2215.262022208119</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2217.777326380906</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2217.777326380906</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2217.777326380906</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>1964.173430465247</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>1633.110543121677</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>1633.110543121677</v>
       </c>
       <c r="X8" t="n">
-        <v>2562.339328400155</v>
+        <v>1568.45337713823</v>
       </c>
       <c r="Y8" t="n">
-        <v>2172.199996424344</v>
+        <v>1178.314045162418</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>635.8298980592776</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>461.3768687781507</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>461.3768687781507</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>302.1394137726951</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1394137726951</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.2852794859455</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>70.04102928676149</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>44.35554652761812</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>92.56405995424029</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>253.1149126643071</v>
       </c>
       <c r="L9" t="n">
-        <v>932.4978103100998</v>
+        <v>515.3178884939828</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687206</v>
+        <v>1064.217776773257</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.770244284151</v>
+        <v>1606.512277172783</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1902.968955587935</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2121.568509855263</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2217.777326380906</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2217.777326380906</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2079.218696472973</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>1884.596484064429</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>1656.496332322571</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1473.894390778034</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1219.657034049832</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1011.8055338443</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>804.0452350793457</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>459.7279652981282</v>
+        <v>767.9170218356038</v>
       </c>
       <c r="C10" t="n">
-        <v>290.7917823702213</v>
+        <v>598.9808389076969</v>
       </c>
       <c r="D10" t="n">
-        <v>290.7917823702213</v>
+        <v>448.8641994953612</v>
       </c>
       <c r="E10" t="n">
-        <v>290.7917823702213</v>
+        <v>300.9511059129681</v>
       </c>
       <c r="F10" t="n">
-        <v>290.7917823702213</v>
+        <v>154.0611584150577</v>
       </c>
       <c r="G10" t="n">
-        <v>122.8053176784999</v>
+        <v>154.0611584150577</v>
       </c>
       <c r="H10" t="n">
-        <v>122.8053176784999</v>
+        <v>154.0611584150577</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>44.35554652761812</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>60.95254262691989</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>218.0633423274023</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>474.6375091918425</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>755.5481168921694</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1035.213914629316</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1277.514248546128</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1461.323360659237</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1505.148182155965</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1396.807701620018</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1396.807701620018</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269233</v>
+        <v>1396.807701620018</v>
       </c>
       <c r="U10" t="n">
-        <v>1413.467639269233</v>
+        <v>1396.807701620018</v>
       </c>
       <c r="V10" t="n">
-        <v>1158.783151063346</v>
+        <v>1142.123213414131</v>
       </c>
       <c r="W10" t="n">
-        <v>869.3659810263853</v>
+        <v>1142.123213414131</v>
       </c>
       <c r="X10" t="n">
-        <v>641.3764301283679</v>
+        <v>914.1336625161141</v>
       </c>
       <c r="Y10" t="n">
-        <v>641.3764301283679</v>
+        <v>914.1336625161141</v>
       </c>
     </row>
     <row r="11">
@@ -5021,40 +5023,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5072,7 +5074,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123002</v>
@@ -5115,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>120.6800663848338</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>454.6048385560544</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397182</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M12" t="n">
-        <v>1522.21291626627</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D13" t="n">
-        <v>363.7369613277355</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E13" t="n">
-        <v>235.5284942057738</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>796.270249298346</v>
       </c>
     </row>
     <row r="14">
@@ -5261,16 +5263,16 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
@@ -5285,7 +5287,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5303,7 +5305,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5315,13 +5317,13 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N15" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
         <v>1859.536823237711</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>533.5582272005022</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>533.5582272005022</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D16" t="n">
-        <v>383.4415877881665</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057736</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057736</v>
+        <v>127.9872882175424</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057736</v>
+        <v>127.9872882175424</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648822</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138439</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.502065570314</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5495,61 +5497,61 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852888</v>
@@ -5558,7 +5560,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913445</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K18" t="n">
-        <v>2715.159942084666</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>3210.485548300424</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M18" t="n">
-        <v>3807.864035926976</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N18" t="n">
-        <v>3807.864035926976</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>3997.30868757553</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>4420.931837070598</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.19349744548</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.6725264685175</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406107</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282751</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458821</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258108</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602306</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396419</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359459</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614415</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.320991298757</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="20">
@@ -5738,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,10 +5764,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5780,19 +5782,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2565.513299557012</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>3060.83890577277</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M21" t="n">
-        <v>3658.217393399322</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>4285.815356953929</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>4457.571492023711</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>4457.571492023711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3232.009622741351</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>3063.073439813445</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650996</v>
+        <v>2433.862105962484</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305901</v>
+        <v>2251.007271617388</v>
       </c>
       <c r="T22" t="n">
-        <v>4440.932614305901</v>
+        <v>2031.40580664033</v>
       </c>
       <c r="U22" t="n">
-        <v>4151.857387650099</v>
+        <v>1742.330579984527</v>
       </c>
       <c r="V22" t="n">
-        <v>4151.857387650099</v>
+        <v>1487.64609177864</v>
       </c>
       <c r="W22" t="n">
-        <v>3862.440217613138</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="X22" t="n">
-        <v>3634.450666715121</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y22" t="n">
-        <v>3413.658087571591</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5972,55 +5974,55 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>2233.355914590558</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>2490.32382148308</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M24" t="n">
-        <v>3087.702309109632</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N24" t="n">
-        <v>3715.300272664238</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O24" t="n">
-        <v>4267.210002903525</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>4690.833152398593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3093.254426444652</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C25" t="n">
-        <v>2924.318243516745</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D25" t="n">
-        <v>2774.201604104409</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>2626.288510522017</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4507.978318053498</v>
+        <v>2243.518075718013</v>
       </c>
       <c r="T25" t="n">
-        <v>4288.376853076439</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="U25" t="n">
-        <v>4013.102191353399</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V25" t="n">
-        <v>4013.102191353399</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W25" t="n">
-        <v>3723.685021316438</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X25" t="n">
-        <v>3495.695470418421</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y25" t="n">
-        <v>3274.902891274891</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6214,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6306,25 +6308,25 @@
         <v>2233.355914590558</v>
       </c>
       <c r="K27" t="n">
-        <v>2233.355914590558</v>
+        <v>2567.280686761779</v>
       </c>
       <c r="L27" t="n">
-        <v>2728.681520806317</v>
+        <v>3062.606292977538</v>
       </c>
       <c r="M27" t="n">
-        <v>3326.060008432869</v>
+        <v>3062.606292977538</v>
       </c>
       <c r="N27" t="n">
-        <v>3953.657971987476</v>
+        <v>3690.204256532144</v>
       </c>
       <c r="O27" t="n">
-        <v>4230.570347950413</v>
+        <v>4242.113986771432</v>
       </c>
       <c r="P27" t="n">
-        <v>4654.193497445481</v>
+        <v>4665.7371362665</v>
       </c>
       <c r="Q27" t="n">
-        <v>4654.193497445481</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R27" t="n">
         <v>4690.833152398593</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3175.341129796739</v>
+        <v>3047.140839595365</v>
       </c>
       <c r="C28" t="n">
-        <v>3006.404946868832</v>
+        <v>3025.687952571559</v>
       </c>
       <c r="D28" t="n">
-        <v>2856.288307456496</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="E28" t="n">
-        <v>2708.375213874103</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F28" t="n">
-        <v>2561.485266376193</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G28" t="n">
         <v>2561.485266376193</v>
@@ -6409,25 +6411,25 @@
         <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T28" t="n">
-        <v>4404.185983673937</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U28" t="n">
-        <v>4115.110757018135</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V28" t="n">
-        <v>3860.426268812248</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W28" t="n">
-        <v>3577.782173770509</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="X28" t="n">
-        <v>3577.782173770509</v>
+        <v>3449.581883569135</v>
       </c>
       <c r="Y28" t="n">
-        <v>3356.989594626978</v>
+        <v>3228.789304425605</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6464,7 +6466,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6543,25 +6545,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O30" t="n">
-        <v>2515.675093211831</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>3173.601046153951</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>3173.601046153951</v>
       </c>
       <c r="D31" t="n">
-        <v>594.8179559048574</v>
+        <v>3023.484406741615</v>
       </c>
       <c r="E31" t="n">
-        <v>446.9048623224643</v>
+        <v>2875.571313159222</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>2728.681365661312</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>4221.33114932884</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>4221.33114932884</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>3966.646661122953</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>3677.229491085993</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>3449.239940187976</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>3228.447361044446</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>2231.588527385791</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L33" t="n">
-        <v>2726.91413360155</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M33" t="n">
-        <v>3324.292621228102</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N33" t="n">
-        <v>3951.890584782709</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O33" t="n">
-        <v>4503.800315021996</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6883,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,10 +6964,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>2383.002557118213</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>2644.045655650153</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M36" t="n">
-        <v>3241.424143276705</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>3869.022106831312</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>4420.931837070599</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>4420.931837070599</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3195.647281583948</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C37" t="n">
-        <v>3026.711098656041</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D37" t="n">
-        <v>2876.594459243706</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4471.231687421535</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4182.156460765733</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>4115.495046492696</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3826.077876455735</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3598.088325557718</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3377.295746414188</v>
+        <v>721.7774158311365</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7166,25 +7168,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,31 +7195,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3026.711098656041</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>3026.711098656041</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>2876.594459243706</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>2728.681365661313</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4455.23555519765</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>4235.634090220591</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>3946.558863564789</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>3946.558863564789</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>3657.141693527828</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="X40" t="n">
-        <v>3429.152142629811</v>
+        <v>1388.566649095898</v>
       </c>
       <c r="Y40" t="n">
-        <v>3208.359563486281</v>
+        <v>1167.774069952368</v>
       </c>
     </row>
     <row r="41">
@@ -7400,13 +7402,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7415,7 +7417,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7433,25 +7435,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615667</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.71794833454</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673289</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667833</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694718</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740626</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385792</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590559</v>
+        <v>2233.355914590557</v>
       </c>
       <c r="J42" t="n">
-        <v>2346.760538432046</v>
+        <v>2233.355914590557</v>
       </c>
       <c r="K42" t="n">
-        <v>2680.685310603267</v>
+        <v>2233.355914590557</v>
       </c>
       <c r="L42" t="n">
-        <v>2680.685310603267</v>
+        <v>2728.681520806316</v>
       </c>
       <c r="M42" t="n">
-        <v>3278.063798229819</v>
+        <v>3326.060008432868</v>
       </c>
       <c r="N42" t="n">
-        <v>3905.661761784425</v>
+        <v>3953.657971987475</v>
       </c>
       <c r="O42" t="n">
-        <v>4457.571492023712</v>
+        <v>4505.567702226762</v>
       </c>
       <c r="P42" t="n">
-        <v>4457.571492023712</v>
+        <v>4654.19349744548</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398594</v>
+        <v>4654.19349744548</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301207</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022981</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566166</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334423</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606222</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400689</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635735</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3195.647281583949</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C43" t="n">
-        <v>3026.711098656042</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D43" t="n">
-        <v>2876.594459243707</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>2728.681365661314</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661314</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376194</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>3677.571434467153</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3644.429411625497</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>3416.439860727479</v>
+        <v>1027.631268836919</v>
       </c>
       <c r="Y43" t="n">
-        <v>3195.647281583949</v>
+        <v>806.8386896933887</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068011</v>
@@ -7670,25 +7672,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2233.355914590559</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2383.002557118214</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>2716.927329289435</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>3212.252935505193</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>3278.063798229819</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N45" t="n">
-        <v>3905.661761784425</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O45" t="n">
-        <v>4457.571492023712</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>4457.571492023712</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1024.063349920562</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C46" t="n">
-        <v>855.1271669926552</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D46" t="n">
-        <v>705.0105275803195</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E46" t="n">
-        <v>557.0974339979264</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="F46" t="n">
-        <v>410.207486500016</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>243.0113872148959</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7831,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.701365648819</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.711814750802</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y46" t="n">
-        <v>1205.711814750802</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265831</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402843</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>171.4142040457086</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711116</v>
+        <v>163.8604018711119</v>
       </c>
       <c r="O4" t="n">
-        <v>153.3759016847017</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>46.56605103777646</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.92993463898938</v>
+        <v>26.19461818159743</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>63.37360602116058</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>166.6231057219252</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>27.02682919940642</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,13 +8537,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>186.5911984019047</v>
+        <v>225.8227420496662</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>195.8988106654278</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>30.32522655688332</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23422,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>19.50758019582713</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>99.76050189075423</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.50758019582346</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>106.465793928349</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>125.1956044930012</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012154</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>125.505489761037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>109.4223302771016</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>53.40527886852237</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272881</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012154</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>45.99097492814107</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>13.6625592834344</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>146.0084629450591</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>6.705344245268861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24692,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>125.5341284403474</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>17.42427990597315</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25123,22 +25125,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>180.5336875992872</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>186.5330677581685</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>186.1428431935215</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>26.01259675821728</v>
       </c>
     </row>
     <row r="38">
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>111.4161395899843</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>14.1599114828324</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25846,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>253.7123957233512</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>110.2232578818468</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26032,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>92.12028678808286</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>73.85777223953464</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>739479.6226458845</v>
+        <v>740651.6888514279</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>744902.5563638748</v>
+        <v>742608.1791776465</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>719672.0419590264</v>
+        <v>719672.0419590265</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>719672.0419590265</v>
+        <v>719672.0419590264</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>719672.0419590264</v>
+        <v>719672.0419590265</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>719672.0419590264</v>
+        <v>719672.0419590265</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>719672.0419590265</v>
+        <v>719672.0419590264</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>719672.0419590265</v>
+        <v>719672.0419590264</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>719672.0419590265</v>
+        <v>719672.0419590264</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="F2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="G2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="H2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="I2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="K2" t="n">
         <v>706253.2747287551</v>
       </c>
-      <c r="H2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="M2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="K2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287554</v>
-      </c>
       <c r="N2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="O2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="P2" t="n">
         <v>706253.2747287556</v>
-      </c>
-      <c r="P2" t="n">
-        <v>706253.2747287557</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208459</v>
       </c>
       <c r="C3" t="n">
-        <v>178997.5061427119</v>
+        <v>259123.8056778323</v>
       </c>
       <c r="D3" t="n">
-        <v>301519.8707731206</v>
+        <v>138712.7919296885</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>589678.792174577</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>41617.52445267278</v>
+        <v>60247.15959153534</v>
       </c>
       <c r="L3" t="n">
-        <v>73739.30240019546</v>
+        <v>33617.8733648425</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>154073.8510167279</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278169.1766632064</v>
+        <v>278169.1766632063</v>
       </c>
       <c r="C4" t="n">
-        <v>230545.7787086348</v>
+        <v>209253.9124355573</v>
       </c>
       <c r="D4" t="n">
-        <v>146359.3674130576</v>
+        <v>170385.5244296194</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685518</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685518</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
         <v>14216.75207685505</v>
@@ -26451,10 +26453,10 @@
         <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="O4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685513</v>
       </c>
       <c r="P4" t="n">
         <v>14216.75207685505</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.8004116136</v>
       </c>
       <c r="C5" t="n">
-        <v>69851.9793002918</v>
+        <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>86168.04029969292</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-208100.3309644172</v>
+        <v>-208100.3309644177</v>
       </c>
       <c r="C6" t="n">
-        <v>239016.2844796097</v>
+        <v>174422.4452586659</v>
       </c>
       <c r="D6" t="n">
-        <v>177594.5380052251</v>
+        <v>323145.1919722471</v>
       </c>
       <c r="E6" t="n">
-        <v>83428.55120344763</v>
+        <v>1235.20065341641</v>
       </c>
       <c r="F6" t="n">
+        <v>590913.9928279938</v>
+      </c>
+      <c r="G6" t="n">
         <v>590913.9928279931</v>
       </c>
-      <c r="G6" t="n">
-        <v>590913.9928279929</v>
-      </c>
       <c r="H6" t="n">
-        <v>590913.992827993</v>
+        <v>590913.9928279934</v>
       </c>
       <c r="I6" t="n">
-        <v>590913.992827993</v>
+        <v>590913.9928279931</v>
       </c>
       <c r="J6" t="n">
         <v>541849.0480994488</v>
       </c>
       <c r="K6" t="n">
-        <v>549296.4683753203</v>
+        <v>530666.8332364577</v>
       </c>
       <c r="L6" t="n">
-        <v>517174.6904277976</v>
+        <v>557296.1194631507</v>
       </c>
       <c r="M6" t="n">
-        <v>458306.6990990665</v>
+        <v>436840.1418112653</v>
       </c>
       <c r="N6" t="n">
-        <v>590913.9928279931</v>
+        <v>590913.9928279932</v>
       </c>
       <c r="O6" t="n">
-        <v>590913.9928279934</v>
+        <v>590913.9928279935</v>
       </c>
       <c r="P6" t="n">
-        <v>590913.9928279936</v>
+        <v>590913.9928279935</v>
       </c>
     </row>
   </sheetData>
@@ -26722,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.469940912905</v>
       </c>
       <c r="C3" t="n">
-        <v>687.6696919955705</v>
+        <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>863.7717861790436</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2299344537559</v>
+        <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>554.4443315952266</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,7 +26810,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26826,10 +26828,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26944,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.469940912905</v>
       </c>
       <c r="C3" t="n">
-        <v>139.1997510826659</v>
+        <v>201.511015584705</v>
       </c>
       <c r="D3" t="n">
-        <v>246.3952001219687</v>
+        <v>113.7908296814336</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>504.2037141626304</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="C4" t="n">
-        <v>161.704347287436</v>
+        <v>234.0895511156615</v>
       </c>
       <c r="D4" t="n">
-        <v>291.354897646283</v>
+        <v>132.8291933132448</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>618.2639565044218</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874358</v>
+        <v>234.0895511156613</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462832</v>
+        <v>132.829193313245</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>618.2639565044218</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
-        <v>161.704347287436</v>
+        <v>234.0895511156615</v>
       </c>
       <c r="L4" t="n">
-        <v>291.354897646283</v>
+        <v>132.8291933132448</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>618.2639565044218</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>237.5351834591556</v>
+        <v>195.2082544971603</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>206.976400336624</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>225.5722460637378</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27424,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>11.36529914368123</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988691</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871047</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038146</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27464,19 +27466,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>128.6363326450814</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550654</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>26.91122581714231</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681384</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831054</v>
+        <v>45.27499998310498</v>
       </c>
       <c r="W3" t="n">
-        <v>135.3012577403317</v>
+        <v>64.16939599459931</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098449</v>
+        <v>18.15710861098407</v>
       </c>
     </row>
     <row r="4">
@@ -27540,10 +27542,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>101.9045254366112</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27554,13 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>23.43375830553077</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27581,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>3.34308217384573</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>132.8223696106903</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>36.19408632378023</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>246.5183202619788</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.05906618577492</v>
+        <v>31.0590661857745</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33.50390720972467</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>16.04295731725165</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>66.49559733630736</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>389.730679233603</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>311.1628534397887</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I5" t="n">
-        <v>103.8974541908713</v>
+        <v>94.24014755885166</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>146.0239967969024</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.9942452356465</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1244928058882</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>20.50116622471313</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27701,19 +27703,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8643785804277</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.95007950277716</v>
+        <v>27.11382385255324</v>
       </c>
       <c r="I6" t="n">
-        <v>38.47015094419594</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,16 +27748,16 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.2027622142185</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8440703321075</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>23.54361480195686</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27771,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.7509192581389</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H7" t="n">
-        <v>51.50788397371505</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>118.1584857285477</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>5.686931024057188</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>121.5357799573319</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>202.4057324704885</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.6471508178238</v>
+        <v>67.71153074267121</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2513897146553</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>104.3187684467265</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>76.6042843978729</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>129.8916290734616</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>207.895202352076</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>305.720506354857</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27935,13 +27937,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27989,7 +27991,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>52.024665020334</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>35.07750590823213</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4333581046933</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>148.3785035421428</v>
       </c>
       <c r="I10" t="n">
-        <v>33.95364940450875</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>196.8715076418046</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.2902986167381</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2340681971946</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -30232,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30457,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30511,22 +30513,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.092834328777952e-12</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="42">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954487</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043125</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528641</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672895</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470027</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244297</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974685</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619227</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924588</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590854</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405035</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292676</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628874</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550082</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288822</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390168</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445827</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620023</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.925421811142</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.0438920276992</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604416</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820539</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784866</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181398</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.76450127435405</v>
+        <v>3.014998820090892</v>
       </c>
       <c r="H5" t="n">
-        <v>28.31194867597842</v>
+        <v>30.87735666625586</v>
       </c>
       <c r="I5" t="n">
-        <v>106.5784353795346</v>
+        <v>116.2357420115543</v>
       </c>
       <c r="J5" t="n">
-        <v>234.6335900342073</v>
+        <v>255.8942561066896</v>
       </c>
       <c r="K5" t="n">
-        <v>351.6549289776143</v>
+        <v>383.5191561611372</v>
       </c>
       <c r="L5" t="n">
-        <v>436.2590348526271</v>
+        <v>475.7894263014939</v>
       </c>
       <c r="M5" t="n">
-        <v>485.422234390421</v>
+        <v>529.4074115682853</v>
       </c>
       <c r="N5" t="n">
-        <v>493.2768736361795</v>
+        <v>537.9737769658685</v>
       </c>
       <c r="O5" t="n">
-        <v>465.7873640893213</v>
+        <v>507.9933824485897</v>
       </c>
       <c r="P5" t="n">
-        <v>397.5387388787057</v>
+        <v>433.5605990775957</v>
       </c>
       <c r="Q5" t="n">
-        <v>298.5350369909011</v>
+        <v>325.5859538330906</v>
       </c>
       <c r="R5" t="n">
-        <v>173.6556031751427</v>
+        <v>189.3909196325347</v>
       </c>
       <c r="S5" t="n">
-        <v>62.99607278934298</v>
+        <v>68.70428561282128</v>
       </c>
       <c r="T5" t="n">
-        <v>12.10160432848486</v>
+        <v>13.19815733494789</v>
       </c>
       <c r="U5" t="n">
-        <v>0.221160101948324</v>
+        <v>0.2411999056072713</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.479138582782925</v>
+        <v>1.613166585674105</v>
       </c>
       <c r="H6" t="n">
-        <v>14.28536473371931</v>
+        <v>15.57979307743149</v>
       </c>
       <c r="I6" t="n">
-        <v>50.92648190721914</v>
+        <v>55.54104253307774</v>
       </c>
       <c r="J6" t="n">
-        <v>139.746158823364</v>
+        <v>152.4088658859908</v>
       </c>
       <c r="K6" t="n">
-        <v>238.84844386982</v>
+        <v>260.4910271261558</v>
       </c>
       <c r="L6" t="n">
-        <v>321.1612085117049</v>
+        <v>350.2623325605112</v>
       </c>
       <c r="M6" t="n">
-        <v>374.7799821375859</v>
+        <v>408.7396212911974</v>
       </c>
       <c r="N6" t="n">
-        <v>384.6992930721258</v>
+        <v>419.5577428240734</v>
       </c>
       <c r="O6" t="n">
-        <v>351.9246960536199</v>
+        <v>383.8133674257156</v>
       </c>
       <c r="P6" t="n">
-        <v>282.4505948122939</v>
+        <v>308.0440649433297</v>
       </c>
       <c r="Q6" t="n">
-        <v>188.8107426022555</v>
+        <v>205.919299602891</v>
       </c>
       <c r="R6" t="n">
-        <v>91.83634113103113</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>27.47435043020037</v>
+        <v>29.96386179969223</v>
       </c>
       <c r="T6" t="n">
-        <v>5.961966480603104</v>
+        <v>6.502193386993429</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09731174886729775</v>
+        <v>0.1061293806364543</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.240060100319881</v>
+        <v>1.352424675651428</v>
       </c>
       <c r="H7" t="n">
-        <v>11.02526161920768</v>
+        <v>12.02428484351907</v>
       </c>
       <c r="I7" t="n">
-        <v>37.29198919871062</v>
+        <v>40.67109842777204</v>
       </c>
       <c r="J7" t="n">
-        <v>87.67224909261559</v>
+        <v>95.61642456855594</v>
       </c>
       <c r="K7" t="n">
-        <v>144.0724371098916</v>
+        <v>157.1271577711386</v>
       </c>
       <c r="L7" t="n">
-        <v>184.3631170966485</v>
+        <v>201.0686649600314</v>
       </c>
       <c r="M7" t="n">
-        <v>194.385057361961</v>
+        <v>211.9987152932506</v>
       </c>
       <c r="N7" t="n">
-        <v>189.7630151698598</v>
+        <v>206.9578596840045</v>
       </c>
       <c r="O7" t="n">
-        <v>175.2768585433956</v>
+        <v>191.15908051844</v>
       </c>
       <c r="P7" t="n">
-        <v>149.9796324968699</v>
+        <v>163.5696171351508</v>
       </c>
       <c r="Q7" t="n">
-        <v>103.8381234913311</v>
+        <v>113.2471244311391</v>
       </c>
       <c r="R7" t="n">
-        <v>55.75761141983754</v>
+        <v>60.80993132519964</v>
       </c>
       <c r="S7" t="n">
-        <v>21.61086556648374</v>
+        <v>23.56907366567079</v>
       </c>
       <c r="T7" t="n">
-        <v>5.298438610457672</v>
+        <v>5.77854179596519</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06763964183562995</v>
+        <v>0.07376861867189614</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.472449391674544</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>35.56222233248694</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>133.871605172533</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>294.7198015566377</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>441.7085843062212</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>547.9785573766811</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>609.7317292458733</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>619.5978260799686</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>585.0686574415049</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>499.3425630845394</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>374.9854692451947</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>218.1262490997763</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>79.12844051278377</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>15.20064721205533</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.2777959513339635</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>1.857924219328509</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>17.94363653930429</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>63.96800491986315</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>175.5330947743658</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>300.014017469376</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>403.4058705169203</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>470.7556234675787</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>483.2151240436897</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>442.0474347627791</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>354.7820379873887</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>237.162396839197</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>115.3542774070806</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>34.51012749498346</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>7.488738410363593</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1222318565347704</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.557621253765488</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>13.84866896529681</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>46.84191915869306</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>110.12382264122</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>180.9672693011176</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>231.57579985528</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>244.1642116243483</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>238.358532405768</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>220.1626841231438</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>188.3872105463277</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>130.4295397130356</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>70.03631564658275</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>27.14509039516764</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>6.655290811543448</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.08496115929629947</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>153.9723775119818</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>379.5002789321571</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,10 +32074,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32084,13 +32086,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O15" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>395.1848490935915</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>333.9544784328825</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>610.0546826043645</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>316.0872899694772</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>398.1179220955526</v>
+        <v>384.4721492652006</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33028,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>422.3057151140777</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>165.3312853305605</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33263,10 +33265,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,13 +33280,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>134.7284881171895</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,7 +33502,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>419.3361492447676</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>285.886712892598</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33676,7 +33678,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33731,19 +33733,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>402.2342772868842</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33754,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,31 +33970,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>526.2989357561996</v>
+        <v>728.6709493241814</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34208,13 +34210,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>241.387751759078</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34226,13 +34228,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>284.1014732918231</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34381,7 +34383,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460039</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34445,7 +34447,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,10 +34456,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>208.6096528357811</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>379.5002789321571</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868222</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788355</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973023</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504118</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656916013</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065995</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781483</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606293</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755149</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855714</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765007</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062401</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>174.6339172880153</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="O4" t="n">
-        <v>154.7162589921022</v>
+        <v>164.3820236732831</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469472</v>
+        <v>28.4584419706827</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>53.58768550752097</v>
+        <v>74.84835158000331</v>
       </c>
       <c r="K5" t="n">
-        <v>131.5650779326338</v>
+        <v>163.4293051161566</v>
       </c>
       <c r="L5" t="n">
-        <v>200.4926198826399</v>
+        <v>240.0230113315067</v>
       </c>
       <c r="M5" t="n">
-        <v>255.0760011631482</v>
+        <v>299.0611783410126</v>
       </c>
       <c r="N5" t="n">
-        <v>263.8638100395885</v>
+        <v>308.5607133692776</v>
       </c>
       <c r="O5" t="n">
-        <v>235.6891526676346</v>
+        <v>277.895171026903</v>
       </c>
       <c r="P5" t="n">
-        <v>166.3057431234361</v>
+        <v>202.3276033223262</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.22934711645163</v>
+        <v>103.2802639586411</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>12.90853215669733</v>
+        <v>88.94484524048465</v>
       </c>
       <c r="K6" t="n">
-        <v>101.007004895461</v>
+        <v>122.6495881517968</v>
       </c>
       <c r="L6" t="n">
-        <v>349.2299344537559</v>
+        <v>211.707952780637</v>
       </c>
       <c r="M6" t="n">
-        <v>232.6459482155676</v>
+        <v>266.605587369179</v>
       </c>
       <c r="N6" t="n">
-        <v>253.3575809887925</v>
+        <v>288.2160307407402</v>
       </c>
       <c r="O6" t="n">
-        <v>236.3552808085819</v>
+        <v>241.2171229812712</v>
       </c>
       <c r="P6" t="n">
-        <v>148.4761873979637</v>
+        <v>174.0696575289995</v>
       </c>
       <c r="Q6" t="n">
-        <v>48.828968516234</v>
+        <v>276.0148132527186</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2.257244451883167</v>
       </c>
       <c r="K7" t="n">
-        <v>121.8029452840088</v>
+        <v>134.8576659452557</v>
       </c>
       <c r="L7" t="n">
-        <v>211.9531423569647</v>
+        <v>228.6586902203475</v>
       </c>
       <c r="M7" t="n">
-        <v>233.9689343238016</v>
+        <v>251.5825922550912</v>
       </c>
       <c r="N7" t="n">
-        <v>233.8951875490883</v>
+        <v>251.0900320632331</v>
       </c>
       <c r="O7" t="n">
-        <v>199.8619864574353</v>
+        <v>215.7442084324797</v>
       </c>
       <c r="P7" t="n">
-        <v>147.2581917617634</v>
+        <v>160.8481764000443</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.67608023963675</v>
+        <v>27.08508117944473</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>113.6738970299514</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>221.6187332612407</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>312.2121424066939</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>379.3854960186006</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>390.1847624833777</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>354.9704460198182</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>268.1095673292699</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>152.6797793707453</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>2.540711285644164</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>48.69546810769916</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>162.172578495017</v>
       </c>
       <c r="L9" t="n">
-        <v>640.5848321000389</v>
+        <v>264.8514907370462</v>
       </c>
       <c r="M9" t="n">
-        <v>553.5225306839452</v>
+        <v>554.4443315952266</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>547.7722226257843</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>299.4511903183346</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>220.8076305730585</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>97.18062275317553</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>16.76464252454724</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>158.6977774752347</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>259.1658251155961</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>283.7480885861889</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>282.4907047849966</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>244.7478120371835</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>185.6657698112212</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>44.2674964613412</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>27.1347508453151</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>248.1585668488238</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35732,13 +35734,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O15" t="n">
-        <v>189.5729943876631</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462684</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715732</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>191.358233988438</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096351</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>471.5003028244903</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>173.4910455250327</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096351</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>259.5635423156784</v>
+        <v>245.9177694853264</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096351</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
         <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>279.7094706696333</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>25.349511244539</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36911,10 +36913,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,13 +36928,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0.7540807028592577</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>281.4947102704086</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>151.9123054782678</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37324,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>263.67989750701</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37402,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>394.9572236728663</v>
+        <v>597.3292372408481</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,13 +37858,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>114.5501250924112</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37874,13 +37876,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>150.1270658774929</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38029,7 +38031,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243171</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38093,7 +38095,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,10 +38104,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>66.4756189137628</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>248.1585668488238</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3111125.893405143</v>
+        <v>3106821.141166331</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8377137.503415724</v>
+        <v>8377137.503415723</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>158.2964914343835</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663203</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>133.8333590606436</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -746,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>29.0087478103196</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663203</v>
+        <v>137.3861289370404</v>
       </c>
     </row>
     <row r="4">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>120.2768797846271</v>
       </c>
       <c r="D4" t="n">
-        <v>46.71094758160118</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>252.4595103580928</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>17.14536650810839</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>12.28773869504416</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.3157839734241</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7303505775365</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>69.54182730651173</v>
+        <v>96.65565115906497</v>
       </c>
       <c r="I6" t="n">
         <v>33.85559031833734</v>
@@ -1025,16 +1025,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.7193093041456</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6625353078282</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8352527003384</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>53.14108197400463</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>148.6586669154031</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>154.4555168896451</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>349.2293892569625</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8302881234605</v>
+        <v>11.83028812346051</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9125797832802</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>129.8916290734616</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.895202352076</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0678569565025</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>64.01059432361201</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1217,22 +1217,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>135.4855929438821</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29180769719218</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>25.42862793155193</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1730436088544</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.675990284458</v>
+        <v>105.0305265436988</v>
       </c>
       <c r="U9" t="n">
         <v>225.8191502244401</v>
       </c>
       <c r="V9" t="n">
-        <v>180.7759221290913</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>144.7544742737052</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4333581046933</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6085557685652</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2570757305867</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>52.32711423025827</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.2902986167381</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624841</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>118.8241514613406</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>33.82891891787487</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>23.41986852521121</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>12.96996784159929</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2490,10 +2490,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>135.0353110735035</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>39.83255574579454</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>21.23835815356878</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>54.29785174158985</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784682</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,13 +3246,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>39.17658763086867</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417106</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>192.5720565938775</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.41584059195296</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>115.4863975071903</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>53.30076123484837</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>371.2627786323109</v>
+        <v>414.0172523312947</v>
       </c>
       <c r="C2" t="n">
-        <v>211.3673327389942</v>
+        <v>224.59746731481</v>
       </c>
       <c r="D2" t="n">
-        <v>211.3673327389942</v>
+        <v>224.59746731481</v>
       </c>
       <c r="E2" t="n">
-        <v>211.3673327389942</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897908</v>
+        <v>28.2321815491218</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678515</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058987</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079188</v>
+        <v>191.8743094079183</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644761</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123838</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985595</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020278</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652812</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652812</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652812</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652812</v>
+        <v>603.4370373477794</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652812</v>
+        <v>603.4370373477794</v>
       </c>
       <c r="V2" t="n">
-        <v>560.6825636487961</v>
+        <v>603.4370373477794</v>
       </c>
       <c r="W2" t="n">
-        <v>560.6825636487961</v>
+        <v>603.4370373477794</v>
       </c>
       <c r="X2" t="n">
-        <v>560.6825636487961</v>
+        <v>603.4370373477794</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.6825636487961</v>
+        <v>414.0172523312947</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>181.8429936158258</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="C3" t="n">
-        <v>181.8429936158258</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="D3" t="n">
-        <v>181.8429936158258</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="E3" t="n">
-        <v>152.5412281508565</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="F3" t="n">
-        <v>152.5412281508565</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330562</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330562</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772652</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140251</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.500058754661</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476359</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017076</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652812</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652812</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652812</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652812</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652812</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487961</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="W3" t="n">
-        <v>371.2627786323109</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="X3" t="n">
-        <v>371.2627786323109</v>
+        <v>371.26277863231</v>
       </c>
       <c r="Y3" t="n">
-        <v>181.8429936158258</v>
+        <v>232.4889110191378</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>379.0340988185563</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="C4" t="n">
-        <v>210.0979158906494</v>
+        <v>628.6105509030299</v>
       </c>
       <c r="D4" t="n">
-        <v>162.9151405556987</v>
+        <v>478.4939114906941</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330562</v>
+        <v>330.580817908301</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330562</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884408</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830979</v>
+        <v>373.5399563830973</v>
       </c>
       <c r="N4" t="n">
-        <v>559.190287677755</v>
+        <v>559.190287677754</v>
       </c>
       <c r="O4" t="n">
-        <v>721.9284911143053</v>
+        <v>721.9284911143042</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652812</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652812</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652812</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S4" t="n">
-        <v>750.1023486652812</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T4" t="n">
-        <v>750.1023486652812</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U4" t="n">
-        <v>750.1023486652812</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V4" t="n">
-        <v>750.1023486652812</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="W4" t="n">
-        <v>750.1023486652812</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="X4" t="n">
-        <v>750.1023486652812</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Y4" t="n">
-        <v>560.6825636487961</v>
+        <v>750.1023486652795</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63.45962035867223</v>
+        <v>1474.442682189358</v>
       </c>
       <c r="C5" t="n">
-        <v>63.45962035867223</v>
+        <v>1219.433075767042</v>
       </c>
       <c r="D5" t="n">
-        <v>63.45962035867223</v>
+        <v>861.1673771602915</v>
       </c>
       <c r="E5" t="n">
-        <v>63.45962035867223</v>
+        <v>861.1673771602915</v>
       </c>
       <c r="F5" t="n">
-        <v>46.14106833027991</v>
+        <v>450.1814723706839</v>
       </c>
       <c r="G5" t="n">
         <v>33.72921106255854</v>
@@ -4594,25 +4594,25 @@
         <v>1686.460553127927</v>
       </c>
       <c r="S5" t="n">
-        <v>1544.727438003256</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="T5" t="n">
-        <v>1544.727438003256</v>
+        <v>1474.442682189358</v>
       </c>
       <c r="U5" t="n">
-        <v>1544.727438003256</v>
+        <v>1474.442682189358</v>
       </c>
       <c r="V5" t="n">
-        <v>1213.664550659686</v>
+        <v>1474.442682189358</v>
       </c>
       <c r="W5" t="n">
-        <v>1213.664550659686</v>
+        <v>1474.442682189358</v>
       </c>
       <c r="X5" t="n">
-        <v>840.1987923986057</v>
+        <v>1474.442682189358</v>
       </c>
       <c r="Y5" t="n">
-        <v>450.059460422794</v>
+        <v>1474.442682189358</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>449.7254405481155</v>
+        <v>794.7181998293682</v>
       </c>
       <c r="C6" t="n">
-        <v>275.2724112669885</v>
+        <v>620.2651705482413</v>
       </c>
       <c r="D6" t="n">
-        <v>275.2724112669885</v>
+        <v>471.33076088699</v>
       </c>
       <c r="E6" t="n">
-        <v>275.2724112669885</v>
+        <v>312.0933058815345</v>
       </c>
       <c r="F6" t="n">
-        <v>275.2724112669885</v>
+        <v>165.5587479084195</v>
       </c>
       <c r="G6" t="n">
-        <v>138.1710470472546</v>
+        <v>165.5587479084195</v>
       </c>
       <c r="H6" t="n">
         <v>67.92677704067707</v>
@@ -4673,25 +4673,25 @@
         <v>1686.460553127927</v>
       </c>
       <c r="S6" t="n">
-        <v>1543.309735648992</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="T6" t="n">
-        <v>1347.691013115832</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="U6" t="n">
-        <v>1119.574596246804</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="V6" t="n">
-        <v>1119.574596246804</v>
+        <v>1632.782692548124</v>
       </c>
       <c r="W6" t="n">
-        <v>865.3372395186022</v>
+        <v>1378.545335819923</v>
       </c>
       <c r="X6" t="n">
-        <v>657.4857393130694</v>
+        <v>1170.69383561439</v>
       </c>
       <c r="Y6" t="n">
-        <v>449.7254405481155</v>
+        <v>962.9335368494362</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>596.1911048331718</v>
+        <v>628.8091611667161</v>
       </c>
       <c r="C7" t="n">
-        <v>596.1911048331718</v>
+        <v>478.6488915551978</v>
       </c>
       <c r="D7" t="n">
-        <v>596.1911048331718</v>
+        <v>328.532252142862</v>
       </c>
       <c r="E7" t="n">
-        <v>448.2780112507787</v>
+        <v>180.6191585604689</v>
       </c>
       <c r="F7" t="n">
-        <v>301.3880637528684</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="G7" t="n">
-        <v>301.3880637528684</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H7" t="n">
-        <v>149.6679752034537</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I7" t="n">
         <v>33.72921106255854</v>
@@ -4749,28 +4749,28 @@
         <v>1293.13166510086</v>
       </c>
       <c r="R7" t="n">
-        <v>1175.471604442305</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="S7" t="n">
-        <v>972.9993576026061</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="T7" t="n">
-        <v>816.983683976702</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="U7" t="n">
-        <v>816.983683976702</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="V7" t="n">
-        <v>816.983683976702</v>
+        <v>1038.447176894973</v>
       </c>
       <c r="W7" t="n">
-        <v>816.983683976702</v>
+        <v>1038.447176894973</v>
       </c>
       <c r="X7" t="n">
-        <v>816.983683976702</v>
+        <v>810.4576259969558</v>
       </c>
       <c r="Y7" t="n">
-        <v>596.1911048331718</v>
+        <v>810.4576259969558</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1178.314045162418</v>
+        <v>416.0077921055317</v>
       </c>
       <c r="C8" t="n">
-        <v>1178.314045162418</v>
+        <v>416.0077921055317</v>
       </c>
       <c r="D8" t="n">
-        <v>1178.314045162418</v>
+        <v>63.25083326011503</v>
       </c>
       <c r="E8" t="n">
-        <v>1178.314045162418</v>
+        <v>63.25083326011503</v>
       </c>
       <c r="F8" t="n">
-        <v>767.3281403728108</v>
+        <v>56.30533251091155</v>
       </c>
       <c r="G8" t="n">
-        <v>351.3379503491133</v>
+        <v>44.35554652761811</v>
       </c>
       <c r="H8" t="n">
-        <v>44.35554652761812</v>
+        <v>44.35554652761811</v>
       </c>
       <c r="I8" t="n">
-        <v>44.35554652761812</v>
+        <v>44.35554652761811</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8927045872699</v>
+        <v>156.8927045872701</v>
       </c>
       <c r="K8" t="n">
-        <v>376.2952505158981</v>
+        <v>376.2952505158987</v>
       </c>
       <c r="L8" t="n">
-        <v>685.3852714985251</v>
+        <v>685.3852714985255</v>
       </c>
       <c r="M8" t="n">
         <v>1060.97691255694</v>
@@ -4825,31 +4825,31 @@
         <v>2064.10904063108</v>
       </c>
       <c r="Q8" t="n">
-        <v>2215.262022208119</v>
+        <v>2215.262022208118</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.777326380906</v>
+        <v>2217.777326380905</v>
       </c>
       <c r="S8" t="n">
-        <v>2217.777326380906</v>
+        <v>2086.573660650136</v>
       </c>
       <c r="T8" t="n">
-        <v>2217.777326380906</v>
+        <v>1876.57850675915</v>
       </c>
       <c r="U8" t="n">
-        <v>1964.173430465247</v>
+        <v>1876.57850675915</v>
       </c>
       <c r="V8" t="n">
-        <v>1633.110543121677</v>
+        <v>1545.515619415579</v>
       </c>
       <c r="W8" t="n">
-        <v>1633.110543121677</v>
+        <v>1192.746964145465</v>
       </c>
       <c r="X8" t="n">
-        <v>1568.45337713823</v>
+        <v>1192.746964145465</v>
       </c>
       <c r="Y8" t="n">
-        <v>1178.314045162418</v>
+        <v>802.6076321696535</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>635.8298980592776</v>
+        <v>810.3691327353166</v>
       </c>
       <c r="C9" t="n">
-        <v>461.3768687781507</v>
+        <v>635.9161034541896</v>
       </c>
       <c r="D9" t="n">
-        <v>461.3768687781507</v>
+        <v>486.9816937929383</v>
       </c>
       <c r="E9" t="n">
-        <v>302.1394137726951</v>
+        <v>327.7442387874828</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1394137726951</v>
+        <v>181.2096808143677</v>
       </c>
       <c r="G9" t="n">
-        <v>165.2852794859455</v>
+        <v>44.35554652761811</v>
       </c>
       <c r="H9" t="n">
-        <v>70.04102928676149</v>
+        <v>44.35554652761811</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35554652761812</v>
+        <v>44.35554652761811</v>
       </c>
       <c r="J9" t="n">
-        <v>92.56405995424029</v>
+        <v>92.56405995424021</v>
       </c>
       <c r="K9" t="n">
-        <v>253.1149126643071</v>
+        <v>514.9354973067597</v>
       </c>
       <c r="L9" t="n">
-        <v>515.3178884939828</v>
+        <v>777.1384731364353</v>
       </c>
       <c r="M9" t="n">
-        <v>1064.217776773257</v>
+        <v>1102.47384678654</v>
       </c>
       <c r="N9" t="n">
-        <v>1606.512277172783</v>
+        <v>1450.828524627293</v>
       </c>
       <c r="O9" t="n">
-        <v>1902.968955587935</v>
+        <v>1747.285203042444</v>
       </c>
       <c r="P9" t="n">
-        <v>2121.568509855263</v>
+        <v>2121.568509855262</v>
       </c>
       <c r="Q9" t="n">
-        <v>2217.777326380906</v>
+        <v>2217.777326380905</v>
       </c>
       <c r="R9" t="n">
-        <v>2217.777326380906</v>
+        <v>2217.777326380905</v>
       </c>
       <c r="S9" t="n">
-        <v>2079.218696472973</v>
+        <v>2217.777326380905</v>
       </c>
       <c r="T9" t="n">
-        <v>1884.596484064429</v>
+        <v>2111.685885427674</v>
       </c>
       <c r="U9" t="n">
-        <v>1656.496332322571</v>
+        <v>1883.585733685816</v>
       </c>
       <c r="V9" t="n">
-        <v>1473.894390778034</v>
+        <v>1648.433625454073</v>
       </c>
       <c r="W9" t="n">
-        <v>1219.657034049832</v>
+        <v>1394.196268725871</v>
       </c>
       <c r="X9" t="n">
-        <v>1011.8055338443</v>
+        <v>1186.344768520338</v>
       </c>
       <c r="Y9" t="n">
-        <v>804.0452350793457</v>
+        <v>978.5844697553846</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>767.9170218356038</v>
+        <v>826.3259130842181</v>
       </c>
       <c r="C10" t="n">
-        <v>598.9808389076969</v>
+        <v>657.3897301563112</v>
       </c>
       <c r="D10" t="n">
-        <v>448.8641994953612</v>
+        <v>507.2730907439754</v>
       </c>
       <c r="E10" t="n">
-        <v>300.9511059129681</v>
+        <v>359.3599971615823</v>
       </c>
       <c r="F10" t="n">
-        <v>154.0611584150577</v>
+        <v>212.4700496636719</v>
       </c>
       <c r="G10" t="n">
-        <v>154.0611584150577</v>
+        <v>44.35554652761811</v>
       </c>
       <c r="H10" t="n">
-        <v>154.0611584150577</v>
+        <v>44.35554652761811</v>
       </c>
       <c r="I10" t="n">
-        <v>44.35554652761812</v>
+        <v>44.35554652761811</v>
       </c>
       <c r="J10" t="n">
-        <v>60.95254262691989</v>
+        <v>60.95254262691984</v>
       </c>
       <c r="K10" t="n">
-        <v>218.0633423274023</v>
+        <v>218.0633423274022</v>
       </c>
       <c r="L10" t="n">
-        <v>474.6375091918425</v>
+        <v>474.6375091918422</v>
       </c>
       <c r="M10" t="n">
-        <v>755.5481168921694</v>
+        <v>755.5481168921691</v>
       </c>
       <c r="N10" t="n">
         <v>1035.213914629316</v>
       </c>
       <c r="O10" t="n">
-        <v>1277.514248546128</v>
+        <v>1277.514248546127</v>
       </c>
       <c r="P10" t="n">
-        <v>1461.323360659237</v>
+        <v>1461.323360659236</v>
       </c>
       <c r="Q10" t="n">
-        <v>1505.148182155965</v>
+        <v>1505.148182155964</v>
       </c>
       <c r="R10" t="n">
-        <v>1396.807701620018</v>
+        <v>1505.148182155964</v>
       </c>
       <c r="S10" t="n">
-        <v>1396.807701620018</v>
+        <v>1452.292511216309</v>
       </c>
       <c r="T10" t="n">
-        <v>1396.807701620018</v>
+        <v>1228.766957057988</v>
       </c>
       <c r="U10" t="n">
-        <v>1396.807701620018</v>
+        <v>1228.766957057988</v>
       </c>
       <c r="V10" t="n">
-        <v>1142.123213414131</v>
+        <v>1228.766957057988</v>
       </c>
       <c r="W10" t="n">
-        <v>1142.123213414131</v>
+        <v>1228.766957057988</v>
       </c>
       <c r="X10" t="n">
-        <v>914.1336625161141</v>
+        <v>1228.766957057988</v>
       </c>
       <c r="Y10" t="n">
-        <v>914.1336625161141</v>
+        <v>1007.974377914458</v>
       </c>
     </row>
     <row r="11">
@@ -5020,13 +5020,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5038,52 +5038,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>120.6800663848338</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>454.6048385560544</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>949.9304447718132</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
         <v>1577.52840832642</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>614.6217844681063</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>614.6217844681063</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>464.5051450557705</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>796.270249298346</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5278,22 +5278,22 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>572.9069687101817</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>422.7903292978459</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>274.8772357154528</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>127.9872882175424</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>127.9872882175424</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5503,19 +5503,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5527,16 +5527,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.2707707770323</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>803.2707707770323</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072721</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,40 +5734,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>710.248605371872</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2433.862105962484</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2251.007271617388</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2031.40580664033</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1742.330579984527</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1487.64609177864</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1198.22892174168</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,58 +5980,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>671.2000270096656</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.3843576263199</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2243.518075718013</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2023.916610740955</v>
+        <v>2156.827640693835</v>
       </c>
       <c r="U25" t="n">
-        <v>2023.916610740955</v>
+        <v>1867.752414038033</v>
       </c>
       <c r="V25" t="n">
-        <v>1769.232122535068</v>
+        <v>1613.067925832146</v>
       </c>
       <c r="W25" t="n">
-        <v>1479.814952498107</v>
+        <v>1323.650755795185</v>
       </c>
       <c r="X25" t="n">
-        <v>1251.82540160009</v>
+        <v>1095.661204897168</v>
       </c>
       <c r="Y25" t="n">
-        <v>1031.03282245656</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="26">
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,31 +6223,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>2233.355914590558</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>2567.280686761779</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>3062.606292977538</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>3062.606292977538</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N27" t="n">
-        <v>3690.204256532144</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O27" t="n">
-        <v>4242.113986771432</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P27" t="n">
-        <v>4665.7371362665</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3047.140839595365</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>3025.687952571559</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>2875.571313159223</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3677.571434467152</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X28" t="n">
-        <v>3449.581883569135</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y28" t="n">
-        <v>3228.789304425605</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="29">
@@ -6539,25 +6539,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3173.601046153951</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153951</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741615</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159222</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376192</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4221.33114932884</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3966.646661122953</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3677.229491085993</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3449.239940187976</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3228.447361044446</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6679,16 +6679,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168617</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,31 +6697,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6736,10 +6736,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591809</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>372.4964262156764</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>867.8220324314351</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1465.200520057987</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2092.798483612594</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1359.396373079494</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1138.603793935964</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6943,10 +6943,10 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6964,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>721.7774158311365</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>552.8412329032296</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7140,7 +7140,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>721.7774158311365</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,31 +7195,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7259,19 +7259,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1616.556199993915</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1388.566649095898</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1167.774069952368</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,22 +7402,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7438,10 +7438,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590557</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2233.355914590557</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2233.355914590557</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>2728.681520806316</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>3326.060008432868</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N42" t="n">
-        <v>3953.657971987475</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O42" t="n">
-        <v>4505.567702226762</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>4654.19349744548</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>806.8386896933887</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1027.631268836919</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>806.8386896933887</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7648,28 +7648,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.7084350851671</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>527.7722521572603</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>377.6556127449245</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>229.7425191625314</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154069</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265831</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402843</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457086</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711119</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>46.56605103777646</v>
+        <v>46.56605103777598</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8534,28 +8534,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>225.8227420496662</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>195.8988106654278</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>157.2563157025153</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.32522655688332</v>
+        <v>30.32522655688338</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>99.76050189075423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>106.465793928349</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>125.1956044930012</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>53.40527886852237</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>45.99097492814107</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>177.5728945814937</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>146.0084629450591</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>125.5341284403474</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>186.5330677581685</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>26.01259675821728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.4161395899843</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>110.2232578818468</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>92.12028678808286</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>719672.0419590265</v>
+        <v>719672.0419590264</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>719672.0419590265</v>
+        <v>719672.0419590264</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>719672.0419590265</v>
+        <v>719672.0419590264</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>719672.0419590265</v>
+        <v>719672.0419590264</v>
       </c>
     </row>
     <row r="15">
@@ -26319,40 +26319,40 @@
         <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="F2" t="n">
         <v>706253.2747287557</v>
       </c>
       <c r="G2" t="n">
+        <v>706253.2747287558</v>
+      </c>
+      <c r="H2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="I2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="I2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="K2" t="n">
-        <v>706253.2747287551</v>
-      </c>
       <c r="L2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287558</v>
       </c>
       <c r="M2" t="n">
+        <v>706253.2747287558</v>
+      </c>
+      <c r="N2" t="n">
+        <v>706253.2747287558</v>
+      </c>
+      <c r="O2" t="n">
         <v>706253.2747287555</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287557</v>
       </c>
       <c r="P2" t="n">
         <v>706253.2747287556</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208459</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>259123.8056778323</v>
+        <v>259123.8056778329</v>
       </c>
       <c r="D3" t="n">
-        <v>138712.7919296885</v>
+        <v>138712.7919296881</v>
       </c>
       <c r="E3" t="n">
-        <v>589678.792174577</v>
+        <v>589678.7921745775</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>60247.15959153534</v>
+        <v>60247.15959153562</v>
       </c>
       <c r="L3" t="n">
-        <v>33617.8733648425</v>
+        <v>33617.87336484247</v>
       </c>
       <c r="M3" t="n">
-        <v>154073.8510167279</v>
+        <v>154073.851016728</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278169.1766632063</v>
+        <v>278169.1766632064</v>
       </c>
       <c r="C4" t="n">
         <v>209253.9124355573</v>
       </c>
       <c r="D4" t="n">
-        <v>170385.5244296194</v>
+        <v>170385.5244296195</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685501</v>
       </c>
       <c r="F4" t="n">
         <v>14216.75207685505</v>
@@ -26444,19 +26444,19 @@
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
+        <v>14216.75207685511</v>
+      </c>
+      <c r="L4" t="n">
+        <v>14216.75207685509</v>
+      </c>
+      <c r="M4" t="n">
+        <v>14216.75207685509</v>
+      </c>
+      <c r="N4" t="n">
         <v>14216.75207685505</v>
       </c>
-      <c r="L4" t="n">
+      <c r="O4" t="n">
         <v>14216.75207685505</v>
-      </c>
-      <c r="M4" t="n">
-        <v>14216.75207685505</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14216.75207685511</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14216.75207685513</v>
       </c>
       <c r="P4" t="n">
         <v>14216.75207685505</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.8004116136</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
         <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>86168.04029969292</v>
+        <v>86168.04029969289</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-208100.3309644177</v>
+        <v>-208100.3309644173</v>
       </c>
       <c r="C6" t="n">
-        <v>174422.4452586659</v>
+        <v>174422.4452586653</v>
       </c>
       <c r="D6" t="n">
         <v>323145.1919722471</v>
       </c>
       <c r="E6" t="n">
-        <v>1235.20065341641</v>
+        <v>887.8213990591437</v>
       </c>
       <c r="F6" t="n">
-        <v>590913.9928279938</v>
+        <v>590566.6135736366</v>
       </c>
       <c r="G6" t="n">
-        <v>590913.9928279931</v>
+        <v>590566.613573637</v>
       </c>
       <c r="H6" t="n">
-        <v>590913.9928279934</v>
+        <v>590566.6135736365</v>
       </c>
       <c r="I6" t="n">
-        <v>590913.9928279931</v>
+        <v>590566.6135736364</v>
       </c>
       <c r="J6" t="n">
-        <v>541849.0480994488</v>
+        <v>541501.6688450918</v>
       </c>
       <c r="K6" t="n">
-        <v>530666.8332364577</v>
+        <v>530319.4539821008</v>
       </c>
       <c r="L6" t="n">
-        <v>557296.1194631507</v>
+        <v>556948.7402087942</v>
       </c>
       <c r="M6" t="n">
-        <v>436840.1418112653</v>
+        <v>436492.7625569088</v>
       </c>
       <c r="N6" t="n">
-        <v>590913.9928279932</v>
+        <v>590566.6135736367</v>
       </c>
       <c r="O6" t="n">
-        <v>590913.9928279935</v>
+        <v>590566.6135736363</v>
       </c>
       <c r="P6" t="n">
-        <v>590913.9928279935</v>
+        <v>590566.6135736365</v>
       </c>
     </row>
   </sheetData>
@@ -26715,16 +26715,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.469940912905</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
         <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>863.7717861790436</v>
+        <v>863.7717861790433</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
         <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>554.4443315952266</v>
+        <v>554.4443315952263</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26810,7 +26810,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,46 +26959,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.469940912905</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>201.511015584705</v>
+        <v>201.5110155847054</v>
       </c>
       <c r="D3" t="n">
-        <v>113.7908296814336</v>
+        <v>113.7908296814333</v>
       </c>
       <c r="E3" t="n">
-        <v>504.2037141626304</v>
+        <v>504.2037141626307</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>234.0895511156615</v>
+        <v>234.0895511156619</v>
       </c>
       <c r="D4" t="n">
+        <v>132.8291933132446</v>
+      </c>
+      <c r="E4" t="n">
+        <v>618.2639565044223</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>187.5255871663199</v>
+      </c>
+      <c r="K4" t="n">
+        <v>234.0895511156617</v>
+      </c>
+      <c r="L4" t="n">
         <v>132.8291933132448</v>
       </c>
-      <c r="E4" t="n">
-        <v>618.2639565044218</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>187.5255871663201</v>
-      </c>
-      <c r="K4" t="n">
-        <v>234.0895511156613</v>
-      </c>
-      <c r="L4" t="n">
-        <v>132.829193313245</v>
-      </c>
       <c r="M4" t="n">
-        <v>618.2639565044218</v>
+        <v>618.263956504422</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156615</v>
+        <v>234.0895511156619</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132448</v>
+        <v>132.8291933132446</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044218</v>
+        <v>618.2639565044223</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971603</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>206.976400336624</v>
+        <v>177.7473046046877</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637378</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368123</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>79.61052199556315</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038146</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27466,19 +27466,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>128.6363326450814</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550654</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714231</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310498</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459931</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715761</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098407</v>
+        <v>68.29656684026398</v>
       </c>
     </row>
     <row r="4">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>46.96994131400076</v>
       </c>
       <c r="D4" t="n">
-        <v>101.9045254366112</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318195</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708666</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553077</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.34308217384573</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106903</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.0590661857745</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>112.8133814129147</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>389.730679233603</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>308.5974454495113</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1044530022292</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,25 +27694,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H6" t="n">
-        <v>27.11382385255324</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,16 +27745,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>179.6595051754206</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>18.58815418322473</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>166.6385546828073</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T7" t="n">
-        <v>67.71153074267121</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U7" t="n">
         <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>5.453652363720494</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>303.9125797832802</v>
       </c>
       <c r="I8" t="n">
-        <v>76.6042843978729</v>
+        <v>76.60428439787296</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.8916290734616</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.895202352076</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0678569565025</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>305.720506354857</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27937,22 +27937,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.29180769719218</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>25.42862793155196</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,16 +27982,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.1730436088544</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>87.64546374075924</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>52.024665020334</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>35.07750590823213</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4333581046933</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>148.3785035421428</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>108.6085557685652</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>107.2570757305868</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8715076418046</v>
+        <v>144.5443934115464</v>
       </c>
       <c r="T10" t="n">
-        <v>221.2902986167381</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2340681971946</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29814,7 +29814,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>8.038590482916834e-13</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>8.360392837795219e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30513,22 +30513,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.092834328777952e-12</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077003</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954487</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043125</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655545</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528641</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672895</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470276</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470027</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622682</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244297</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151094</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974685</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619227</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924588</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590854</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340084</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621738</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405035</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975332</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829656</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292676</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628874</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936716</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550082</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288822</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820373</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390168</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445827</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620023</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639164</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.925421811142</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276992</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682167</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604416</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820539</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784866</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647913</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147604</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181398</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.472449391674544</v>
+        <v>3.472449391674543</v>
       </c>
       <c r="H8" t="n">
-        <v>35.56222233248694</v>
+        <v>35.56222233248693</v>
       </c>
       <c r="I8" t="n">
         <v>133.871605172533</v>
       </c>
       <c r="J8" t="n">
-        <v>294.7198015566377</v>
+        <v>294.7198015566375</v>
       </c>
       <c r="K8" t="n">
-        <v>441.7085843062212</v>
+        <v>441.708584306221</v>
       </c>
       <c r="L8" t="n">
-        <v>547.9785573766811</v>
+        <v>547.9785573766809</v>
       </c>
       <c r="M8" t="n">
-        <v>609.7317292458733</v>
+        <v>609.7317292458731</v>
       </c>
       <c r="N8" t="n">
-        <v>619.5978260799686</v>
+        <v>619.5978260799684</v>
       </c>
       <c r="O8" t="n">
-        <v>585.0686574415049</v>
+        <v>585.0686574415047</v>
       </c>
       <c r="P8" t="n">
-        <v>499.3425630845394</v>
+        <v>499.3425630845393</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9854692451947</v>
+        <v>374.9854692451946</v>
       </c>
       <c r="R8" t="n">
-        <v>218.1262490997763</v>
+        <v>218.1262490997762</v>
       </c>
       <c r="S8" t="n">
-        <v>79.12844051278377</v>
+        <v>79.12844051278373</v>
       </c>
       <c r="T8" t="n">
-        <v>15.20064721205533</v>
+        <v>15.20064721205532</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777959513339635</v>
+        <v>0.2777959513339634</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,34 +31594,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857924219328509</v>
+        <v>1.857924219328508</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94363653930429</v>
+        <v>17.94363653930428</v>
       </c>
       <c r="I9" t="n">
-        <v>63.96800491986315</v>
+        <v>63.96800491986312</v>
       </c>
       <c r="J9" t="n">
         <v>175.5330947743658</v>
       </c>
       <c r="K9" t="n">
-        <v>300.014017469376</v>
+        <v>300.0140174693759</v>
       </c>
       <c r="L9" t="n">
-        <v>403.4058705169203</v>
+        <v>403.4058705169202</v>
       </c>
       <c r="M9" t="n">
-        <v>470.7556234675787</v>
+        <v>470.7556234675785</v>
       </c>
       <c r="N9" t="n">
-        <v>483.2151240436897</v>
+        <v>483.2151240436895</v>
       </c>
       <c r="O9" t="n">
-        <v>442.0474347627791</v>
+        <v>442.0474347627788</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7820379873887</v>
+        <v>354.7820379873886</v>
       </c>
       <c r="Q9" t="n">
         <v>237.162396839197</v>
@@ -31630,13 +31630,13 @@
         <v>115.3542774070806</v>
       </c>
       <c r="S9" t="n">
-        <v>34.51012749498346</v>
+        <v>34.51012749498345</v>
       </c>
       <c r="T9" t="n">
-        <v>7.488738410363593</v>
+        <v>7.488738410363589</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222318565347704</v>
+        <v>0.1222318565347703</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31676,46 +31676,46 @@
         <v>1.557621253765488</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84866896529681</v>
+        <v>13.8486689652968</v>
       </c>
       <c r="I10" t="n">
-        <v>46.84191915869306</v>
+        <v>46.84191915869305</v>
       </c>
       <c r="J10" t="n">
         <v>110.12382264122</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9672693011176</v>
+        <v>180.9672693011175</v>
       </c>
       <c r="L10" t="n">
-        <v>231.57579985528</v>
+        <v>231.5757998552799</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1642116243483</v>
+        <v>244.1642116243482</v>
       </c>
       <c r="N10" t="n">
-        <v>238.358532405768</v>
+        <v>238.3585324057679</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1626841231438</v>
+        <v>220.1626841231437</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3872105463277</v>
+        <v>188.3872105463276</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4295397130356</v>
+        <v>130.4295397130355</v>
       </c>
       <c r="R10" t="n">
-        <v>70.03631564658275</v>
+        <v>70.03631564658272</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14509039516764</v>
+        <v>27.14509039516762</v>
       </c>
       <c r="T10" t="n">
-        <v>6.655290811543448</v>
+        <v>6.655290811543446</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08496115929629947</v>
+        <v>0.08496115929629942</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,10 +31837,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>153.9723775119818</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422586</v>
@@ -31849,10 +31849,10 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>650.2626573149951</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>519.7862086120942</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>395.1848490935915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>610.0546826043645</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>384.4721492652006</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q27" t="n">
-        <v>165.3312853305605</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33268,7 +33268,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,34 +33496,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>419.3361492447676</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33678,7 +33678,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,22 +33742,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33979,13 +33979,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>728.6709493241814</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33994,7 +33994,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>284.1014732918231</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>379.5002789321571</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868222</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788355</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973023</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197549</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504118</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405815</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916013</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065995</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781483</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606293</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755149</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996323</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848231</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855714</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765007</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880153</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O4" t="n">
-        <v>164.3820236732831</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>28.4584419706827</v>
+        <v>28.45844197068212</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6738970299514</v>
+        <v>113.6738970299513</v>
       </c>
       <c r="K8" t="n">
-        <v>221.6187332612407</v>
+        <v>221.6187332612405</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2121424066939</v>
+        <v>312.2121424066937</v>
       </c>
       <c r="M8" t="n">
-        <v>379.3854960186006</v>
+        <v>379.3854960186004</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1847624833777</v>
+        <v>390.1847624833775</v>
       </c>
       <c r="O8" t="n">
-        <v>354.9704460198182</v>
+        <v>354.9704460198179</v>
       </c>
       <c r="P8" t="n">
-        <v>268.1095673292699</v>
+        <v>268.1095673292697</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6797793707453</v>
+        <v>152.6797793707451</v>
       </c>
       <c r="R8" t="n">
-        <v>2.540711285644164</v>
+        <v>2.540711285644079</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.69546810769916</v>
+        <v>48.6954681076991</v>
       </c>
       <c r="K9" t="n">
-        <v>162.172578495017</v>
+        <v>426.6378155075955</v>
       </c>
       <c r="L9" t="n">
-        <v>264.8514907370462</v>
+        <v>264.851490737046</v>
       </c>
       <c r="M9" t="n">
-        <v>554.4443315952266</v>
+        <v>328.6215895455602</v>
       </c>
       <c r="N9" t="n">
-        <v>547.7722226257843</v>
+        <v>351.8734119603562</v>
       </c>
       <c r="O9" t="n">
-        <v>299.4511903183346</v>
+        <v>299.4511903183344</v>
       </c>
       <c r="P9" t="n">
-        <v>220.8076305730585</v>
+        <v>378.0639462755737</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.18062275317553</v>
+        <v>97.18062275317544</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.76464252454724</v>
+        <v>16.7646425245472</v>
       </c>
       <c r="K10" t="n">
         <v>158.6977774752347</v>
       </c>
       <c r="L10" t="n">
-        <v>259.1658251155961</v>
+        <v>259.165825115596</v>
       </c>
       <c r="M10" t="n">
-        <v>283.7480885861889</v>
+        <v>283.7480885861888</v>
       </c>
       <c r="N10" t="n">
-        <v>282.4907047849966</v>
+        <v>282.4907047849965</v>
       </c>
       <c r="O10" t="n">
-        <v>244.7478120371835</v>
+        <v>244.7478120371834</v>
       </c>
       <c r="P10" t="n">
-        <v>185.6657698112212</v>
+        <v>185.6657698112211</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.2674964613412</v>
+        <v>44.26749646134114</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>27.1347508453151</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35497,10 +35497,10 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>508.1286233929767</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>388.4444965287609</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>253.0508151715732</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>471.5003028244903</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>245.9177694853264</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q27" t="n">
-        <v>25.349511244539</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,7 +36916,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>281.4947102704086</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>597.3292372408481</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37642,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>150.1270658774929</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>248.1585668488238</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3106821.141166331</v>
+        <v>3108581.671469117</v>
       </c>
     </row>
     <row r="7">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>50.20964914699436</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>11.36529914368128</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>133.8333590606436</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
     </row>
     <row r="3">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>159.4435279160464</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714234</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>137.3861289370404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>105.8538318215788</v>
       </c>
       <c r="C4" t="n">
-        <v>120.2768797846271</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,10 +828,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.4337583055308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845758</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>252.4595103580928</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2877386950441</v>
+        <v>156.9071071693634</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H6" t="n">
         <v>96.65565115906497</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>53.14108197400463</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>169.1057145573875</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1056,16 +1056,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>148.6586669154031</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>20.29684812141807</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>349.2293892569625</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>340.0126963947462</v>
       </c>
       <c r="G8" t="n">
         <v>11.83028812346051</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.8916290734616</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.895202352076</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4855929438821</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>25.42862793155197</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>22.41150127156984</v>
       </c>
       <c r="T9" t="n">
-        <v>105.0305265436988</v>
+        <v>192.675990284458</v>
       </c>
       <c r="U9" t="n">
         <v>225.8191502244401</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>52.32711423025827</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>221.2902986167381</v>
+        <v>47.9077574579587</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701357</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1536,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>80.67842139643686</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>91.89996056624841</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>71.56327578339756</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,13 +2058,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>139.1630968205466</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>63.16281301712667</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2487,7 +2487,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>138.7199604467004</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>39.83255574579454</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2724,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808204</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>240.06330988836</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428169</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784682</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417106</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>217.6587144826188</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>414.0172523312947</v>
+        <v>199.403069204296</v>
       </c>
       <c r="C2" t="n">
-        <v>224.59746731481</v>
+        <v>199.403069204296</v>
       </c>
       <c r="D2" t="n">
-        <v>224.59746731481</v>
+        <v>199.403069204296</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832527</v>
+        <v>199.403069204296</v>
       </c>
       <c r="F2" t="n">
-        <v>28.2321815491218</v>
+        <v>192.4575684550925</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678495</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079183</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201467</v>
+        <v>738.6222485201479</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201467</v>
+        <v>578.242639237266</v>
       </c>
       <c r="T2" t="n">
-        <v>603.4370373477794</v>
+        <v>578.242639237266</v>
       </c>
       <c r="U2" t="n">
-        <v>603.4370373477794</v>
+        <v>578.242639237266</v>
       </c>
       <c r="V2" t="n">
-        <v>603.4370373477794</v>
+        <v>578.242639237266</v>
       </c>
       <c r="W2" t="n">
-        <v>603.4370373477794</v>
+        <v>578.242639237266</v>
       </c>
       <c r="X2" t="n">
-        <v>603.4370373477794</v>
+        <v>578.242639237266</v>
       </c>
       <c r="Y2" t="n">
-        <v>414.0172523312947</v>
+        <v>388.822854220781</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.27357399906981</v>
+        <v>372.4454386657766</v>
       </c>
       <c r="C3" t="n">
-        <v>64.27357399906981</v>
+        <v>372.4454386657766</v>
       </c>
       <c r="D3" t="n">
-        <v>64.27357399906981</v>
+        <v>223.5110290045253</v>
       </c>
       <c r="E3" t="n">
         <v>64.27357399906981</v>
@@ -4406,55 +4406,55 @@
         <v>64.27357399906981</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>722.9192922843287</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652795</v>
+        <v>722.9192922843287</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652795</v>
+        <v>722.9192922843287</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487947</v>
+        <v>722.9192922843287</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487947</v>
+        <v>533.4995072678437</v>
       </c>
       <c r="W3" t="n">
-        <v>560.6825636487947</v>
+        <v>533.4995072678437</v>
       </c>
       <c r="X3" t="n">
-        <v>371.26277863231</v>
+        <v>533.4995072678437</v>
       </c>
       <c r="Y3" t="n">
-        <v>232.4889110191378</v>
+        <v>533.4995072678437</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>750.1023486652795</v>
+        <v>505.6384258308209</v>
       </c>
       <c r="C4" t="n">
-        <v>628.6105509030299</v>
+        <v>336.702242902914</v>
       </c>
       <c r="D4" t="n">
-        <v>478.4939114906941</v>
+        <v>186.5856034905783</v>
       </c>
       <c r="E4" t="n">
-        <v>330.580817908301</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="F4" t="n">
-        <v>183.6908704103906</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="L4" t="n">
         <v>187.8896250884407</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830973</v>
+        <v>373.5399563830977</v>
       </c>
       <c r="N4" t="n">
-        <v>559.190287677754</v>
+        <v>559.1902876777546</v>
       </c>
       <c r="O4" t="n">
-        <v>721.9284911143042</v>
+        <v>721.9284911143047</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652795</v>
+        <v>746.7254979846282</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652795</v>
+        <v>612.5614882768601</v>
       </c>
       <c r="S4" t="n">
-        <v>750.1023486652795</v>
+        <v>612.5614882768601</v>
       </c>
       <c r="T4" t="n">
-        <v>750.1023486652795</v>
+        <v>612.5614882768601</v>
       </c>
       <c r="U4" t="n">
-        <v>750.1023486652795</v>
+        <v>612.5614882768601</v>
       </c>
       <c r="V4" t="n">
-        <v>750.1023486652795</v>
+        <v>612.5614882768601</v>
       </c>
       <c r="W4" t="n">
-        <v>750.1023486652795</v>
+        <v>612.5614882768601</v>
       </c>
       <c r="X4" t="n">
-        <v>750.1023486652795</v>
+        <v>612.5614882768601</v>
       </c>
       <c r="Y4" t="n">
-        <v>750.1023486652795</v>
+        <v>612.5614882768601</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1474.442682189358</v>
+        <v>926.3949548027256</v>
       </c>
       <c r="C5" t="n">
-        <v>1219.433075767042</v>
+        <v>557.4324378623139</v>
       </c>
       <c r="D5" t="n">
-        <v>861.1673771602915</v>
+        <v>199.1667392555634</v>
       </c>
       <c r="E5" t="n">
-        <v>861.1673771602915</v>
+        <v>199.1667392555634</v>
       </c>
       <c r="F5" t="n">
-        <v>450.1814723706839</v>
+        <v>192.22123850636</v>
       </c>
       <c r="G5" t="n">
         <v>33.72921106255854</v>
@@ -4597,22 +4597,22 @@
         <v>1686.460553127927</v>
       </c>
       <c r="T5" t="n">
-        <v>1474.442682189358</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="U5" t="n">
-        <v>1474.442682189358</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="V5" t="n">
-        <v>1474.442682189358</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="W5" t="n">
-        <v>1474.442682189358</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="X5" t="n">
-        <v>1474.442682189358</v>
+        <v>1312.994794866847</v>
       </c>
       <c r="Y5" t="n">
-        <v>1474.442682189358</v>
+        <v>1312.994794866847</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>794.7181998293682</v>
+        <v>931.8195640491023</v>
       </c>
       <c r="C6" t="n">
-        <v>620.2651705482413</v>
+        <v>757.3665347679753</v>
       </c>
       <c r="D6" t="n">
-        <v>471.33076088699</v>
+        <v>608.432125106724</v>
       </c>
       <c r="E6" t="n">
-        <v>312.0933058815345</v>
+        <v>449.1946701012685</v>
       </c>
       <c r="F6" t="n">
-        <v>165.5587479084195</v>
+        <v>302.6601121281534</v>
       </c>
       <c r="G6" t="n">
         <v>165.5587479084195</v>
@@ -4646,25 +4646,25 @@
         <v>33.72921106255854</v>
       </c>
       <c r="J6" t="n">
-        <v>121.7846078506383</v>
+        <v>151.1670875614256</v>
       </c>
       <c r="K6" t="n">
-        <v>243.2077001209171</v>
+        <v>272.5901798317044</v>
       </c>
       <c r="L6" t="n">
-        <v>452.7985733737478</v>
+        <v>482.1810530845351</v>
       </c>
       <c r="M6" t="n">
-        <v>716.738104869235</v>
+        <v>746.1205845800223</v>
       </c>
       <c r="N6" t="n">
-        <v>1002.071975302568</v>
+        <v>1031.454455013355</v>
       </c>
       <c r="O6" t="n">
-        <v>1240.876927054026</v>
+        <v>1448.853441912517</v>
       </c>
       <c r="P6" t="n">
-        <v>1413.205888007736</v>
+        <v>1621.182402866226</v>
       </c>
       <c r="Q6" t="n">
         <v>1686.460553127927</v>
@@ -4682,16 +4682,16 @@
         <v>1686.460553127927</v>
       </c>
       <c r="V6" t="n">
-        <v>1632.782692548124</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="W6" t="n">
-        <v>1378.545335819923</v>
+        <v>1515.646700039657</v>
       </c>
       <c r="X6" t="n">
-        <v>1170.69383561439</v>
+        <v>1307.795199834124</v>
       </c>
       <c r="Y6" t="n">
-        <v>962.9335368494362</v>
+        <v>1100.03490106917</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>628.8091611667161</v>
+        <v>352.7820334028012</v>
       </c>
       <c r="C7" t="n">
-        <v>478.6488915551978</v>
+        <v>183.8458504748943</v>
       </c>
       <c r="D7" t="n">
-        <v>328.532252142862</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="E7" t="n">
-        <v>180.6191585604689</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="F7" t="n">
         <v>33.72921106255854</v>
@@ -4761,16 +4761,16 @@
         <v>1293.13166510086</v>
       </c>
       <c r="V7" t="n">
-        <v>1038.447176894973</v>
+        <v>1272.629798311549</v>
       </c>
       <c r="W7" t="n">
-        <v>1038.447176894973</v>
+        <v>983.2126282745884</v>
       </c>
       <c r="X7" t="n">
-        <v>810.4576259969558</v>
+        <v>755.223077376571</v>
       </c>
       <c r="Y7" t="n">
-        <v>810.4576259969558</v>
+        <v>534.4304982330409</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416.0077921055317</v>
+        <v>1143.806451791407</v>
       </c>
       <c r="C8" t="n">
-        <v>416.0077921055317</v>
+        <v>1143.806451791407</v>
       </c>
       <c r="D8" t="n">
-        <v>63.25083326011503</v>
+        <v>785.540753184657</v>
       </c>
       <c r="E8" t="n">
-        <v>63.25083326011503</v>
+        <v>399.7525005864127</v>
       </c>
       <c r="F8" t="n">
-        <v>56.30533251091155</v>
+        <v>56.30533251091153</v>
       </c>
       <c r="G8" t="n">
-        <v>44.35554652761811</v>
+        <v>44.35554652761808</v>
       </c>
       <c r="H8" t="n">
-        <v>44.35554652761811</v>
+        <v>44.35554652761808</v>
       </c>
       <c r="I8" t="n">
-        <v>44.35554652761811</v>
+        <v>44.35554652761808</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8927045872701</v>
+        <v>156.8927045872697</v>
       </c>
       <c r="K8" t="n">
-        <v>376.2952505158987</v>
+        <v>376.2952505158976</v>
       </c>
       <c r="L8" t="n">
-        <v>685.3852714985255</v>
+        <v>685.3852714985251</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.97691255694</v>
+        <v>1060.976912556939</v>
       </c>
       <c r="N8" t="n">
-        <v>1447.259827415483</v>
+        <v>1447.259827415482</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.680568975103</v>
+        <v>1798.680568975102</v>
       </c>
       <c r="P8" t="n">
-        <v>2064.10904063108</v>
+        <v>2064.109040631079</v>
       </c>
       <c r="Q8" t="n">
-        <v>2215.262022208118</v>
+        <v>2215.262022208116</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.777326380905</v>
+        <v>2217.777326380904</v>
       </c>
       <c r="S8" t="n">
-        <v>2086.573660650136</v>
+        <v>2217.777326380904</v>
       </c>
       <c r="T8" t="n">
-        <v>1876.57850675915</v>
+        <v>2217.777326380904</v>
       </c>
       <c r="U8" t="n">
-        <v>1876.57850675915</v>
+        <v>2217.777326380904</v>
       </c>
       <c r="V8" t="n">
-        <v>1545.515619415579</v>
+        <v>1886.714439037333</v>
       </c>
       <c r="W8" t="n">
-        <v>1192.746964145465</v>
+        <v>1533.945783767219</v>
       </c>
       <c r="X8" t="n">
-        <v>1192.746964145465</v>
+        <v>1533.945783767219</v>
       </c>
       <c r="Y8" t="n">
-        <v>802.6076321696535</v>
+        <v>1143.806451791407</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>810.3691327353166</v>
+        <v>699.2004812077103</v>
       </c>
       <c r="C9" t="n">
-        <v>635.9161034541896</v>
+        <v>524.7474519265833</v>
       </c>
       <c r="D9" t="n">
-        <v>486.9816937929383</v>
+        <v>375.813042265332</v>
       </c>
       <c r="E9" t="n">
-        <v>327.7442387874828</v>
+        <v>216.5755872598765</v>
       </c>
       <c r="F9" t="n">
-        <v>181.2096808143677</v>
+        <v>70.04102928676149</v>
       </c>
       <c r="G9" t="n">
-        <v>44.35554652761811</v>
+        <v>70.04102928676149</v>
       </c>
       <c r="H9" t="n">
-        <v>44.35554652761811</v>
+        <v>70.04102928676149</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35554652761811</v>
+        <v>44.35554652761808</v>
       </c>
       <c r="J9" t="n">
-        <v>92.56405995424021</v>
+        <v>92.56405995424014</v>
       </c>
       <c r="K9" t="n">
-        <v>514.9354973067597</v>
+        <v>514.9354973067595</v>
       </c>
       <c r="L9" t="n">
-        <v>777.1384731364353</v>
+        <v>777.1384731364351</v>
       </c>
       <c r="M9" t="n">
         <v>1102.47384678654</v>
       </c>
       <c r="N9" t="n">
-        <v>1450.828524627293</v>
+        <v>1450.828524627292</v>
       </c>
       <c r="O9" t="n">
-        <v>1747.285203042444</v>
+        <v>1747.285203042443</v>
       </c>
       <c r="P9" t="n">
-        <v>2121.568509855262</v>
+        <v>2121.56850985526</v>
       </c>
       <c r="Q9" t="n">
-        <v>2217.777326380905</v>
+        <v>2217.777326380904</v>
       </c>
       <c r="R9" t="n">
-        <v>2217.777326380905</v>
+        <v>2217.777326380904</v>
       </c>
       <c r="S9" t="n">
-        <v>2217.777326380905</v>
+        <v>2195.139446308611</v>
       </c>
       <c r="T9" t="n">
-        <v>2111.685885427674</v>
+        <v>2000.517233900068</v>
       </c>
       <c r="U9" t="n">
-        <v>1883.585733685816</v>
+        <v>1772.417082158209</v>
       </c>
       <c r="V9" t="n">
-        <v>1648.433625454073</v>
+        <v>1537.264973926467</v>
       </c>
       <c r="W9" t="n">
-        <v>1394.196268725871</v>
+        <v>1283.027617198265</v>
       </c>
       <c r="X9" t="n">
-        <v>1186.344768520338</v>
+        <v>1075.176116992732</v>
       </c>
       <c r="Y9" t="n">
-        <v>978.5844697553846</v>
+        <v>867.4158182277783</v>
       </c>
     </row>
     <row r="10">
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>826.3259130842181</v>
+        <v>826.325913084218</v>
       </c>
       <c r="C10" t="n">
-        <v>657.3897301563112</v>
+        <v>657.3897301563111</v>
       </c>
       <c r="D10" t="n">
         <v>507.2730907439754</v>
@@ -4953,28 +4953,28 @@
         <v>212.4700496636719</v>
       </c>
       <c r="G10" t="n">
-        <v>44.35554652761811</v>
+        <v>44.35554652761808</v>
       </c>
       <c r="H10" t="n">
-        <v>44.35554652761811</v>
+        <v>44.35554652761808</v>
       </c>
       <c r="I10" t="n">
-        <v>44.35554652761811</v>
+        <v>44.35554652761808</v>
       </c>
       <c r="J10" t="n">
-        <v>60.95254262691984</v>
+        <v>60.95254262691978</v>
       </c>
       <c r="K10" t="n">
-        <v>218.0633423274022</v>
+        <v>218.0633423274021</v>
       </c>
       <c r="L10" t="n">
-        <v>474.6375091918422</v>
+        <v>474.6375091918421</v>
       </c>
       <c r="M10" t="n">
-        <v>755.5481168921691</v>
+        <v>755.548116892169</v>
       </c>
       <c r="N10" t="n">
-        <v>1035.213914629316</v>
+        <v>1035.213914629315</v>
       </c>
       <c r="O10" t="n">
         <v>1277.514248546127</v>
@@ -4983,25 +4983,25 @@
         <v>1461.323360659236</v>
       </c>
       <c r="Q10" t="n">
-        <v>1505.148182155964</v>
+        <v>1505.148182155963</v>
       </c>
       <c r="R10" t="n">
-        <v>1505.148182155964</v>
+        <v>1505.148182155963</v>
       </c>
       <c r="S10" t="n">
-        <v>1452.292511216309</v>
+        <v>1505.148182155963</v>
       </c>
       <c r="T10" t="n">
-        <v>1228.766957057988</v>
+        <v>1456.756507956005</v>
       </c>
       <c r="U10" t="n">
-        <v>1228.766957057988</v>
+        <v>1456.756507956005</v>
       </c>
       <c r="V10" t="n">
-        <v>1228.766957057988</v>
+        <v>1456.756507956005</v>
       </c>
       <c r="W10" t="n">
-        <v>1228.766957057988</v>
+        <v>1456.756507956005</v>
       </c>
       <c r="X10" t="n">
         <v>1228.766957057988</v>
@@ -5020,61 +5020,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282754</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458823</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,52 +5266,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,13 +5454,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487568</v>
@@ -5475,13 +5475,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1361.415228493873</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1133.425677595856</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="17">
@@ -5506,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,37 +5527,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1836.89229584329</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="20">
@@ -5734,19 +5734,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5755,7 +5755,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5767,34 +5767,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5980,16 +5980,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5998,13 +5998,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>950.1865537761984</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>781.2503708482915</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>631.1337314359557</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>483.2206378535626</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2156.827640693835</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1867.752414038033</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1613.067925832146</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W25" t="n">
-        <v>1323.650755795185</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X25" t="n">
-        <v>1095.661204897168</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>874.8686257536381</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="26">
@@ -6223,10 +6223,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6235,13 +6235,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6308,19 +6308,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.7825789706076</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8463960427007</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>241.729756630365</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797187</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
         <v>93.81666304797187</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W28" t="n">
-        <v>1191.213173842395</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>963.2236229443774</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.4310438008473</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6600,25 +6600,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6679,16 +6679,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168617</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6703,16 +6703,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6742,7 +6742,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6788,10 +6788,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6931,28 +6931,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6964,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,22 +7010,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
         <v>2001.151557821488</v>
@@ -7074,25 +7074,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7265,7 +7265,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1757.603793154328</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1502.919304948441</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1213.50213491148</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>985.5125840134626</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7651,10 +7651,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7666,7 +7666,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457083</v>
+        <v>171.4142040457085</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711116</v>
+        <v>163.8604018711118</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>46.56605103777598</v>
+        <v>46.5660510377764</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>63.37360602116058</v>
+        <v>93.05287845629924</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>180.3980153007106</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>157.2563157025153</v>
+        <v>157.2563157025148</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.32522655688338</v>
+        <v>30.32522655688341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23424,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>65.75554125013231</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>214.9597225531934</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>147.0213775686976</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>104.0840080815012</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>6.701087576230805</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>177.5728945814937</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.2291039219422</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>68.5257599066253</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>719672.0419590264</v>
+        <v>719672.0419590265</v>
       </c>
     </row>
     <row r="8">
@@ -26319,40 +26319,40 @@
         <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287558</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="H2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="I2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="K2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="M2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="N2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="J2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>706253.2747287556</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287558</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287558</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287558</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287555</v>
       </c>
       <c r="P2" t="n">
         <v>706253.2747287556</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>259123.8056778329</v>
+        <v>259123.8056778326</v>
       </c>
       <c r="D3" t="n">
-        <v>138712.7919296881</v>
+        <v>138712.7919296878</v>
       </c>
       <c r="E3" t="n">
-        <v>589678.7921745775</v>
+        <v>589678.7921745777</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.9447285445</v>
       </c>
       <c r="K3" t="n">
-        <v>60247.15959153562</v>
+        <v>60247.15959153561</v>
       </c>
       <c r="L3" t="n">
-        <v>33617.87336484247</v>
+        <v>33617.87336484229</v>
       </c>
       <c r="M3" t="n">
-        <v>154073.851016728</v>
+        <v>154073.8510167282</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>209253.9124355573</v>
       </c>
       <c r="D4" t="n">
-        <v>170385.5244296195</v>
+        <v>170385.5244296196</v>
       </c>
       <c r="E4" t="n">
+        <v>14216.75207685502</v>
+      </c>
+      <c r="F4" t="n">
         <v>14216.75207685501</v>
-      </c>
-      <c r="F4" t="n">
-        <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
         <v>14216.75207685505</v>
@@ -26444,13 +26444,13 @@
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
         <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>86168.04029969289</v>
+        <v>86168.04029969288</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-208100.3309644173</v>
+        <v>-208100.3309644175</v>
       </c>
       <c r="C6" t="n">
-        <v>174422.4452586653</v>
+        <v>174422.4452586657</v>
       </c>
       <c r="D6" t="n">
-        <v>323145.1919722471</v>
+        <v>323145.1919722475</v>
       </c>
       <c r="E6" t="n">
-        <v>887.8213990591437</v>
+        <v>1200.462727979902</v>
       </c>
       <c r="F6" t="n">
-        <v>590566.6135736366</v>
+        <v>590879.2549025572</v>
       </c>
       <c r="G6" t="n">
-        <v>590566.613573637</v>
+        <v>590879.2549025577</v>
       </c>
       <c r="H6" t="n">
-        <v>590566.6135736365</v>
+        <v>590879.2549025577</v>
       </c>
       <c r="I6" t="n">
-        <v>590566.6135736364</v>
+        <v>590879.2549025578</v>
       </c>
       <c r="J6" t="n">
-        <v>541501.6688450918</v>
+        <v>541814.3101740134</v>
       </c>
       <c r="K6" t="n">
-        <v>530319.4539821008</v>
+        <v>530632.0953110219</v>
       </c>
       <c r="L6" t="n">
-        <v>556948.7402087942</v>
+        <v>557261.3815377156</v>
       </c>
       <c r="M6" t="n">
-        <v>436492.7625569088</v>
+        <v>436805.4038858293</v>
       </c>
       <c r="N6" t="n">
-        <v>590566.6135736367</v>
+        <v>590879.2549025577</v>
       </c>
       <c r="O6" t="n">
-        <v>590566.6135736363</v>
+        <v>590879.2549025578</v>
       </c>
       <c r="P6" t="n">
-        <v>590566.6135736365</v>
+        <v>590879.2549025578</v>
       </c>
     </row>
   </sheetData>
@@ -26715,10 +26715,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
         <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>863.7717861790433</v>
+        <v>863.771786179043</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
         <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>554.4443315952263</v>
+        <v>554.444331595226</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-4.022529435979809e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>201.5110155847054</v>
+        <v>201.5110155847052</v>
       </c>
       <c r="D3" t="n">
-        <v>113.7908296814333</v>
+        <v>113.790829681433</v>
       </c>
       <c r="E3" t="n">
-        <v>504.2037141626307</v>
+        <v>504.2037141626309</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>234.0895511156619</v>
+        <v>234.0895511156617</v>
       </c>
       <c r="D4" t="n">
-        <v>132.8291933132446</v>
+        <v>132.8291933132442</v>
       </c>
       <c r="E4" t="n">
-        <v>618.2639565044223</v>
+        <v>618.2639565044228</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
         <v>234.0895511156617</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132448</v>
+        <v>132.8291933132442</v>
       </c>
       <c r="M4" t="n">
-        <v>618.263956504422</v>
+        <v>618.2639565044228</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156619</v>
+        <v>234.0895511156617</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132446</v>
+        <v>132.8291933132442</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044223</v>
+        <v>618.2639565044228</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971605</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046877</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059419</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>362.8881840830637</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>79.61052199556315</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897337</v>
+        <v>198.7123514897335</v>
       </c>
     </row>
     <row r="3">
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>7.089655733820905</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377106</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310515</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715761</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>68.29656684026398</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>73.97814836035846</v>
       </c>
       <c r="C4" t="n">
-        <v>46.96994131400076</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,10 +27548,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27560,7 +27560,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>112.8133814129147</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>255.3806315256807</v>
       </c>
       <c r="H5" t="n">
         <v>308.5974454495113</v>
@@ -27669,7 +27669,7 @@
         <v>140.3157839734241</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U5" t="n">
         <v>251.1044530022292</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27709,7 +27709,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7303505775365</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27754,10 +27754,10 @@
         <v>225.8352527003384</v>
       </c>
       <c r="V6" t="n">
-        <v>179.6595051754206</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>82.5892686035321</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27776,16 +27776,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>18.58815418322473</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.6385546828073</v>
@@ -27833,16 +27833,16 @@
         <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>231.8407952024099</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>5.453652363720494</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>66.86334934696526</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9125797832802</v>
+        <v>303.9125797832803</v>
       </c>
       <c r="I8" t="n">
-        <v>76.60428439787296</v>
+        <v>76.60428439787299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>129.8916290734616</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.895202352076</v>
       </c>
       <c r="U8" t="n">
         <v>251.0678569565025</v>
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.4855929438821</v>
       </c>
       <c r="H9" t="n">
         <v>94.29180769719218</v>
       </c>
       <c r="I9" t="n">
-        <v>25.42862793155196</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,10 +27982,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1730436088544</v>
+        <v>114.7615423372845</v>
       </c>
       <c r="T9" t="n">
-        <v>87.64546374075924</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>148.3785035421428</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6085557685652</v>
+        <v>108.6085557685653</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>107.2570757305868</v>
       </c>
       <c r="S10" t="n">
-        <v>144.5443934115464</v>
+        <v>196.8715076418046</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>173.3825411587794</v>
       </c>
       <c r="U10" t="n">
         <v>286.2340681971946</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28386,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29814,7 +29814,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>8.038590482916834e-13</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>8.360392837795219e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -31044,46 +31044,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,34 +31135,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31223,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.472449391674543</v>
+        <v>3.472449391674542</v>
       </c>
       <c r="H8" t="n">
-        <v>35.56222233248693</v>
+        <v>35.56222233248691</v>
       </c>
       <c r="I8" t="n">
-        <v>133.871605172533</v>
+        <v>133.8716051725329</v>
       </c>
       <c r="J8" t="n">
-        <v>294.7198015566375</v>
+        <v>294.7198015566374</v>
       </c>
       <c r="K8" t="n">
-        <v>441.708584306221</v>
+        <v>441.7085843062209</v>
       </c>
       <c r="L8" t="n">
-        <v>547.9785573766809</v>
+        <v>547.9785573766808</v>
       </c>
       <c r="M8" t="n">
-        <v>609.7317292458731</v>
+        <v>609.7317292458729</v>
       </c>
       <c r="N8" t="n">
-        <v>619.5978260799684</v>
+        <v>619.5978260799683</v>
       </c>
       <c r="O8" t="n">
-        <v>585.0686574415047</v>
+        <v>585.0686574415045</v>
       </c>
       <c r="P8" t="n">
-        <v>499.3425630845393</v>
+        <v>499.3425630845392</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9854692451946</v>
+        <v>374.9854692451945</v>
       </c>
       <c r="R8" t="n">
-        <v>218.1262490997762</v>
+        <v>218.1262490997761</v>
       </c>
       <c r="S8" t="n">
-        <v>79.12844051278373</v>
+        <v>79.12844051278371</v>
       </c>
       <c r="T8" t="n">
         <v>15.20064721205532</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777959513339634</v>
+        <v>0.2777959513339633</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31600,40 +31600,40 @@
         <v>17.94363653930428</v>
       </c>
       <c r="I9" t="n">
-        <v>63.96800491986312</v>
+        <v>63.96800491986311</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5330947743658</v>
+        <v>175.5330947743657</v>
       </c>
       <c r="K9" t="n">
-        <v>300.0140174693759</v>
+        <v>300.0140174693757</v>
       </c>
       <c r="L9" t="n">
-        <v>403.4058705169202</v>
+        <v>403.4058705169201</v>
       </c>
       <c r="M9" t="n">
-        <v>470.7556234675785</v>
+        <v>470.7556234675784</v>
       </c>
       <c r="N9" t="n">
-        <v>483.2151240436895</v>
+        <v>483.2151240436894</v>
       </c>
       <c r="O9" t="n">
-        <v>442.0474347627788</v>
+        <v>442.0474347627787</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7820379873886</v>
+        <v>354.7820379873885</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.162396839197</v>
+        <v>237.1623968391969</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3542774070806</v>
+        <v>115.3542774070805</v>
       </c>
       <c r="S9" t="n">
-        <v>34.51012749498345</v>
+        <v>34.51012749498344</v>
       </c>
       <c r="T9" t="n">
-        <v>7.488738410363589</v>
+        <v>7.488738410363587</v>
       </c>
       <c r="U9" t="n">
         <v>0.1222318565347703</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557621253765488</v>
+        <v>1.557621253765487</v>
       </c>
       <c r="H10" t="n">
         <v>13.8486689652968</v>
       </c>
       <c r="I10" t="n">
-        <v>46.84191915869305</v>
+        <v>46.84191915869303</v>
       </c>
       <c r="J10" t="n">
-        <v>110.12382264122</v>
+        <v>110.1238226412199</v>
       </c>
       <c r="K10" t="n">
         <v>180.9672693011175</v>
@@ -31691,7 +31691,7 @@
         <v>231.5757998552799</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1642116243482</v>
+        <v>244.1642116243481</v>
       </c>
       <c r="N10" t="n">
         <v>238.3585324057679</v>
@@ -31706,16 +31706,16 @@
         <v>130.4295397130355</v>
       </c>
       <c r="R10" t="n">
-        <v>70.03631564658272</v>
+        <v>70.03631564658271</v>
       </c>
       <c r="S10" t="n">
         <v>27.14509039516762</v>
       </c>
       <c r="T10" t="n">
-        <v>6.655290811543446</v>
+        <v>6.655290811543444</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08496115929629942</v>
+        <v>0.08496115929629941</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31849,16 +31849,16 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>650.2626573149951</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,25 +32074,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,7 +32104,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33028,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>169.9530009943068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33508,13 +33508,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33739,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33748,7 +33748,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33909,7 +33909,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33985,10 +33985,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>174.6339172880153</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>28.45844197068212</v>
+        <v>28.45844197068258</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>88.94484524048465</v>
+        <v>118.6241176756233</v>
       </c>
       <c r="K6" t="n">
         <v>122.6495881517968</v>
@@ -35029,13 +35029,13 @@
         <v>288.2160307407402</v>
       </c>
       <c r="O6" t="n">
-        <v>241.2171229812712</v>
+        <v>421.6151382819818</v>
       </c>
       <c r="P6" t="n">
         <v>174.0696575289995</v>
       </c>
       <c r="Q6" t="n">
-        <v>276.0148132527186</v>
+        <v>65.9375255168695</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6738970299513</v>
+        <v>113.6738970299511</v>
       </c>
       <c r="K8" t="n">
-        <v>221.6187332612405</v>
+        <v>221.6187332612404</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2121424066937</v>
+        <v>312.2121424066935</v>
       </c>
       <c r="M8" t="n">
-        <v>379.3854960186004</v>
+        <v>379.3854960186002</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1847624833775</v>
+        <v>390.1847624833774</v>
       </c>
       <c r="O8" t="n">
-        <v>354.9704460198179</v>
+        <v>354.9704460198177</v>
       </c>
       <c r="P8" t="n">
-        <v>268.1095673292697</v>
+        <v>268.1095673292696</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6797793707451</v>
+        <v>152.679779370745</v>
       </c>
       <c r="R8" t="n">
-        <v>2.540711285644079</v>
+        <v>2.540711285644022</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.6954681076991</v>
+        <v>48.69546810769904</v>
       </c>
       <c r="K9" t="n">
-        <v>426.6378155075955</v>
+        <v>426.6378155075953</v>
       </c>
       <c r="L9" t="n">
-        <v>264.851490737046</v>
+        <v>264.8514907370459</v>
       </c>
       <c r="M9" t="n">
-        <v>328.6215895455602</v>
+        <v>328.6215895455601</v>
       </c>
       <c r="N9" t="n">
-        <v>351.8734119603562</v>
+        <v>351.8734119603561</v>
       </c>
       <c r="O9" t="n">
-        <v>299.4511903183344</v>
+        <v>299.4511903183343</v>
       </c>
       <c r="P9" t="n">
-        <v>378.0639462755737</v>
+        <v>378.063946275573</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.18062275317544</v>
+        <v>97.18062275317538</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,16 +35330,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.7646425245472</v>
+        <v>16.76464252454717</v>
       </c>
       <c r="K10" t="n">
-        <v>158.6977774752347</v>
+        <v>158.6977774752346</v>
       </c>
       <c r="L10" t="n">
         <v>259.165825115596</v>
       </c>
       <c r="M10" t="n">
-        <v>283.7480885861888</v>
+        <v>283.7480885861887</v>
       </c>
       <c r="N10" t="n">
         <v>282.4907047849965</v>
@@ -35351,7 +35351,7 @@
         <v>185.6657698112211</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.26749646134114</v>
+        <v>44.26749646134111</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35497,16 +35497,16 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>508.1286233929767</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36676,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -37156,13 +37156,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37396,7 +37396,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37557,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37633,10 +37633,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
